--- a/ConsumerLoan/Data/df_pred.xlsx
+++ b/ConsumerLoan/Data/df_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H647"/>
+  <dimension ref="A1:J647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,16 @@
           <t>RevenueCL_y</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ProbablitySaleCL</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>RevenueCL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -498,6 +508,12 @@
         <v>0.4442821142416983</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4442821142416983</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -526,6 +542,12 @@
       <c r="H3" t="n">
         <v>15.85524802031681</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.5647680271168433</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.72528556259741</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -552,6 +574,12 @@
       <c r="H4" t="n">
         <v>9.168976670653398</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.5354200735501132</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.617604548038914</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -578,6 +606,12 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.2607045138282229</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -604,6 +638,12 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.3478512136396468</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -630,6 +670,12 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0.3019162012922956</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -656,6 +702,12 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0.3981245156389797</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -682,6 +734,12 @@
       <c r="H9" t="n">
         <v>14.03400153314123</v>
       </c>
+      <c r="I9" t="n">
+        <v>0.6623820548709222</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.12460511783851</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -708,6 +766,12 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.4140380813268646</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -734,6 +798,12 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0.4844464373139022</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -760,6 +830,12 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0.4499482424353382</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -786,6 +862,12 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>0.3196650219753859</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -812,6 +894,12 @@
       <c r="H14" t="n">
         <v>11.16823101756582</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.5184046961890979</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.24503536358367</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -838,6 +926,12 @@
       <c r="H15" t="n">
         <v>11.079331018879</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.5228229502370254</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11.34775800798874</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -864,6 +958,12 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.4432176734354517</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -890,6 +990,12 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.4309855355398497</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -916,6 +1022,12 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0.3028775030640953</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -942,6 +1054,12 @@
       <c r="H19" t="n">
         <v>12.09486590878863</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.5363721108232649</v>
+      </c>
+      <c r="J19" t="n">
+        <v>11.37255940335458</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -968,6 +1086,12 @@
       <c r="H20" t="n">
         <v>11.55166710082159</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.5001732282987045</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.68081043849533</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -994,6 +1118,12 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.2794353898308986</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1020,6 +1150,12 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.3623333408558056</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1046,6 +1182,12 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0.3422720385080267</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1072,6 +1214,12 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>0.3035189365808551</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1098,6 +1246,12 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0.3596278435602047</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1124,6 +1278,12 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0.4077375364061617</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1150,6 +1310,12 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0.3128051265845365</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1176,6 +1342,12 @@
       <c r="H28" t="n">
         <v>15.77624167518202</v>
       </c>
+      <c r="I28" t="n">
+        <v>0.6058005671943717</v>
+      </c>
+      <c r="J28" t="n">
+        <v>16.75948021452754</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1202,6 +1374,12 @@
       <c r="H29" t="n">
         <v>9.744307494990711</v>
       </c>
+      <c r="I29" t="n">
+        <v>0.6511345500194813</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.10848118851387</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1228,6 +1406,12 @@
       <c r="H30" t="n">
         <v>12.30150666615627</v>
       </c>
+      <c r="I30" t="n">
+        <v>0.5128216287319585</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12.37180933473914</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1254,6 +1438,12 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0.2307047303242001</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1280,6 +1470,12 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.4361829781278952</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1306,6 +1502,12 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.2192001234269844</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1332,6 +1534,12 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0.4668575888754531</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1358,6 +1566,12 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0.4456723495048078</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1384,6 +1598,12 @@
       <c r="H36" t="n">
         <v>10.01639554075826</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.6183782848432405</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9.310118023404002</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1410,6 +1630,12 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0.4690618240348966</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1436,6 +1662,12 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0.3459870625747249</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1462,6 +1694,12 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0.3139006269627668</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1488,6 +1726,12 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0.2040453140563121</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1514,6 +1758,12 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0.4097431836528972</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1540,6 +1790,12 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.3853280408616236</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1566,6 +1822,12 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.3061354266885086</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1592,6 +1854,12 @@
       <c r="H44" t="n">
         <v>15.20311205049083</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.5151697104810045</v>
+      </c>
+      <c r="J44" t="n">
+        <v>16.08604403414921</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1618,6 +1886,12 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.4394657470859013</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1644,6 +1918,12 @@
       <c r="H46" t="n">
         <v>12.1688277054295</v>
       </c>
+      <c r="I46" t="n">
+        <v>0.5263746358322315</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12.23175795751518</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1670,6 +1950,12 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
+      <c r="I47" t="n">
+        <v>0.4598389629746771</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1696,6 +1982,12 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>0.4514753792073257</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1722,6 +2014,12 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0.3122404485155105</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1748,6 +2046,12 @@
       <c r="H50" t="n">
         <v>11.87046877571366</v>
       </c>
+      <c r="I50" t="n">
+        <v>0.562148321484957</v>
+      </c>
+      <c r="J50" t="n">
+        <v>11.22398446337917</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1774,6 +2078,12 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0.3851683405302457</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1800,6 +2110,12 @@
       <c r="H52" t="n">
         <v>11.91846522574065</v>
       </c>
+      <c r="I52" t="n">
+        <v>0.5348798459837398</v>
+      </c>
+      <c r="J52" t="n">
+        <v>10.72841320774464</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1826,6 +2142,12 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0.3467192087717163</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1852,6 +2174,12 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
+      <c r="I54" t="n">
+        <v>0.3441539123381536</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1878,6 +2206,12 @@
       <c r="H55" t="n">
         <v>11.74796497009439</v>
       </c>
+      <c r="I55" t="n">
+        <v>0.5391055088830035</v>
+      </c>
+      <c r="J55" t="n">
+        <v>11.66267540338222</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1904,6 +2238,12 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0.3441178931570647</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1930,6 +2270,12 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>0.4087070552846157</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1956,6 +2302,12 @@
       <c r="H58" t="n">
         <v>9.547503227993415</v>
       </c>
+      <c r="I58" t="n">
+        <v>0.5612867851364784</v>
+      </c>
+      <c r="J58" t="n">
+        <v>9.704490964164805</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1982,6 +2334,12 @@
       <c r="H59" t="n">
         <v>9.322318459032825</v>
       </c>
+      <c r="I59" t="n">
+        <v>0.5264154340769053</v>
+      </c>
+      <c r="J59" t="n">
+        <v>9.169848679689826</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2008,6 +2366,12 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0.3567651995366702</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2034,6 +2398,12 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0.2308649862962076</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2060,6 +2430,12 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0.4326729297388274</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2086,6 +2462,12 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
+      <c r="I63" t="n">
+        <v>0.4721776988205208</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2112,6 +2494,12 @@
       <c r="H64" t="n">
         <v>10.52457986396209</v>
       </c>
+      <c r="I64" t="n">
+        <v>0.5636649198841975</v>
+      </c>
+      <c r="J64" t="n">
+        <v>10.961438282749</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2138,6 +2526,12 @@
       <c r="H65" t="n">
         <v>13.81786392016277</v>
       </c>
+      <c r="I65" t="n">
+        <v>0.5976521481775258</v>
+      </c>
+      <c r="J65" t="n">
+        <v>14.88076869709306</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2164,6 +2558,12 @@
       <c r="H66" t="n">
         <v>13.01642560580584</v>
       </c>
+      <c r="I66" t="n">
+        <v>0.5985219991501468</v>
+      </c>
+      <c r="J66" t="n">
+        <v>12.95669672075358</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2190,6 +2590,12 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0.4349793782073738</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2216,6 +2622,12 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
+      <c r="I68" t="n">
+        <v>0.4078671958697378</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2242,6 +2654,12 @@
       <c r="H69" t="n">
         <v>13.82859960000725</v>
       </c>
+      <c r="I69" t="n">
+        <v>0.6218445962785712</v>
+      </c>
+      <c r="J69" t="n">
+        <v>13.86209351319316</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2268,6 +2686,12 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>0.2753744502633108</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2294,6 +2718,12 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
+      <c r="I71" t="n">
+        <v>0.4856681090995593</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2320,6 +2750,12 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0.268249556700442</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2346,6 +2782,12 @@
       <c r="H73" t="n">
         <v>11.08098492942224</v>
       </c>
+      <c r="I73" t="n">
+        <v>0.6259693936520195</v>
+      </c>
+      <c r="J73" t="n">
+        <v>9.26668775604997</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2372,6 +2814,12 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>0.477454856781327</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2398,6 +2846,12 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0.3615032658641746</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2424,6 +2878,12 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
+      <c r="I76" t="n">
+        <v>0.2745279113944666</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2450,6 +2910,12 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0.2724496755072684</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2476,6 +2942,12 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
+      <c r="I78" t="n">
+        <v>0.2683895810269691</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2502,6 +2974,12 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0.316315435214482</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2528,6 +3006,12 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
+      <c r="I80" t="n">
+        <v>0.4883884267552372</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2554,6 +3038,12 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>0.4224989304803161</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2580,6 +3070,12 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>0.30926364142912</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2606,6 +3102,12 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0.3971915953009539</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2632,6 +3134,12 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0.362270156551502</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2658,6 +3166,12 @@
       <c r="H85" t="n">
         <v>11.02301342483584</v>
       </c>
+      <c r="I85" t="n">
+        <v>0.5394914766006328</v>
+      </c>
+      <c r="J85" t="n">
+        <v>9.943515642947157</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2684,6 +3198,12 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0.4843558512180866</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2710,6 +3230,12 @@
       <c r="H87" t="n">
         <v>9.75117452798311</v>
       </c>
+      <c r="I87" t="n">
+        <v>0.5028305259782373</v>
+      </c>
+      <c r="J87" t="n">
+        <v>10.01249599687194</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2736,6 +3262,12 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>0.3967385983980442</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2762,6 +3294,12 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>0.2581743859815306</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2788,6 +3326,12 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0.4307387916421843</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2814,6 +3358,12 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0.4741222376861285</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2840,6 +3390,12 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0.469026840381561</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2866,6 +3422,12 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
+      <c r="I93" t="n">
+        <v>0.3504534761249107</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2892,6 +3454,12 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0.3278177191427389</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2918,6 +3486,12 @@
       <c r="H95" t="n">
         <v>16.5187700549675</v>
       </c>
+      <c r="I95" t="n">
+        <v>0.5930881742306418</v>
+      </c>
+      <c r="J95" t="n">
+        <v>16.05077762371247</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2944,6 +3518,12 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0.3070316858162862</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2970,6 +3550,12 @@
       <c r="H97" t="n">
         <v>14.29461643472599</v>
       </c>
+      <c r="I97" t="n">
+        <v>0.5571531775254842</v>
+      </c>
+      <c r="J97" t="n">
+        <v>14.56086039440368</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2996,6 +3582,12 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>0.4142627660203562</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3022,6 +3614,12 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0.2997540593873023</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3048,6 +3646,12 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>0.3496444908791788</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3074,6 +3678,12 @@
       <c r="H101" t="n">
         <v>9.367606290105201</v>
       </c>
+      <c r="I101" t="n">
+        <v>0.5692293440454688</v>
+      </c>
+      <c r="J101" t="n">
+        <v>9.820381808754387</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3100,6 +3710,12 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
+      <c r="I102" t="n">
+        <v>0.3939619629161046</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3126,6 +3742,12 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
+      <c r="I103" t="n">
+        <v>0.2755486501314582</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3152,6 +3774,12 @@
       <c r="H104" t="n">
         <v>10.99106329911761</v>
       </c>
+      <c r="I104" t="n">
+        <v>0.5538980767146988</v>
+      </c>
+      <c r="J104" t="n">
+        <v>11.19097114475802</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3178,6 +3806,12 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
+      <c r="I105" t="n">
+        <v>0.1160858211327199</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3204,6 +3838,12 @@
       <c r="H106" t="n">
         <v>9.243492750826734</v>
       </c>
+      <c r="I106" t="n">
+        <v>0.5190620176244291</v>
+      </c>
+      <c r="J106" t="n">
+        <v>7.389701274803047</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3230,6 +3870,12 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
+      <c r="I107" t="n">
+        <v>0.232777060637861</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3256,6 +3902,12 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
+      <c r="I108" t="n">
+        <v>0.1970629147605318</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3282,6 +3934,12 @@
       <c r="H109" t="n">
         <v>18.39448312347492</v>
       </c>
+      <c r="I109" t="n">
+        <v>0.5544921548691126</v>
+      </c>
+      <c r="J109" t="n">
+        <v>17.89751930483849</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3308,6 +3966,12 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
+      <c r="I110" t="n">
+        <v>0.28461267608857</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3334,6 +3998,12 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
+      <c r="I111" t="n">
+        <v>0.4960256253470723</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3360,6 +4030,12 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
+      <c r="I112" t="n">
+        <v>0.4233863097202372</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3386,6 +4062,12 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
+      <c r="I113" t="n">
+        <v>0.3063926139803709</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3412,6 +4094,12 @@
       <c r="H114" t="n">
         <v>12.96586266151274</v>
       </c>
+      <c r="I114" t="n">
+        <v>0.5629860243262845</v>
+      </c>
+      <c r="J114" t="n">
+        <v>13.08836261698619</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3438,6 +4126,12 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
+      <c r="I115" t="n">
+        <v>0.3329578530060393</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3464,6 +4158,12 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
+      <c r="I116" t="n">
+        <v>0.4747600874945238</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3490,6 +4190,12 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
+      <c r="I117" t="n">
+        <v>0.4647629372480032</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3516,6 +4222,12 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
+      <c r="I118" t="n">
+        <v>0.2260440883903476</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3542,6 +4254,12 @@
       <c r="H119" t="n">
         <v>11.85678966222313</v>
       </c>
+      <c r="I119" t="n">
+        <v>0.5137688377049038</v>
+      </c>
+      <c r="J119" t="n">
+        <v>13.36054108418892</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3568,6 +4286,12 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
+      <c r="I120" t="n">
+        <v>0.3374835161535373</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3594,6 +4318,12 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
+      <c r="I121" t="n">
+        <v>0.2752926803200584</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3620,6 +4350,12 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
+      <c r="I122" t="n">
+        <v>0.3841654395484504</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3646,6 +4382,12 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
+      <c r="I123" t="n">
+        <v>0.4846415040230526</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3672,6 +4414,12 @@
       <c r="H124" t="n">
         <v>9.477677764696789</v>
       </c>
+      <c r="I124" t="n">
+        <v>0.6225563490953318</v>
+      </c>
+      <c r="J124" t="n">
+        <v>10.73004788396885</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3698,6 +4446,12 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
+      <c r="I125" t="n">
+        <v>0.456674487750609</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3724,6 +4478,12 @@
       <c r="H126" t="n">
         <v>11.86445175907338</v>
       </c>
+      <c r="I126" t="n">
+        <v>0.5643077213678681</v>
+      </c>
+      <c r="J126" t="n">
+        <v>11.65123999753281</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3750,6 +4510,12 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
+      <c r="I127" t="n">
+        <v>0.2441257665732688</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3776,6 +4542,12 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
+      <c r="I128" t="n">
+        <v>0.451747575041875</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3802,6 +4574,12 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
+      <c r="I129" t="n">
+        <v>0.4424260452502385</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3828,6 +4606,12 @@
       <c r="H130" t="n">
         <v>10.6806854817058</v>
       </c>
+      <c r="I130" t="n">
+        <v>0.5172122089654083</v>
+      </c>
+      <c r="J130" t="n">
+        <v>11.18578722719041</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3854,6 +4638,12 @@
       <c r="H131" t="n">
         <v>9.41684842812446</v>
       </c>
+      <c r="I131" t="n">
+        <v>0.5134157288688052</v>
+      </c>
+      <c r="J131" t="n">
+        <v>8.490399912533777</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3880,6 +4670,12 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
+      <c r="I132" t="n">
+        <v>0.3133830862496855</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3906,6 +4702,12 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
+      <c r="I133" t="n">
+        <v>0.3885416322135003</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3932,6 +4734,12 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
+      <c r="I134" t="n">
+        <v>0.2987401587807907</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3958,6 +4766,12 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
+      <c r="I135" t="n">
+        <v>0.4708679862954888</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3984,6 +4798,12 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
+      <c r="I136" t="n">
+        <v>0.3826021557732139</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4010,6 +4830,12 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
+      <c r="I137" t="n">
+        <v>0.3532011230704756</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4036,6 +4862,12 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
+      <c r="I138" t="n">
+        <v>0.2569212954357076</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4062,6 +4894,12 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
+      <c r="I139" t="n">
+        <v>0.4928855532812418</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4088,6 +4926,12 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
+      <c r="I140" t="n">
+        <v>0.3847943408309214</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4114,6 +4958,12 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
+      <c r="I141" t="n">
+        <v>0.4125430061331209</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4140,6 +4990,12 @@
       <c r="H142" t="n">
         <v>15.44213283396168</v>
       </c>
+      <c r="I142" t="n">
+        <v>0.5194107033151401</v>
+      </c>
+      <c r="J142" t="n">
+        <v>15.05903158082989</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4166,6 +5022,12 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
+      <c r="I143" t="n">
+        <v>0.3876762660314573</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4192,6 +5054,12 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
+      <c r="I144" t="n">
+        <v>0.4318649959824163</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4218,6 +5086,12 @@
       <c r="H145" t="n">
         <v>16.0276502427871</v>
       </c>
+      <c r="I145" t="n">
+        <v>0.5509365125845853</v>
+      </c>
+      <c r="J145" t="n">
+        <v>17.28158092302189</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4244,6 +5118,12 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
+      <c r="I146" t="n">
+        <v>0.4951612951981432</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4270,6 +5150,12 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
+      <c r="I147" t="n">
+        <v>0.4063387221426492</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4296,6 +5182,12 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
+      <c r="I148" t="n">
+        <v>0.4168298570654527</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4322,6 +5214,12 @@
       <c r="H149" t="n">
         <v>9.561557367903577</v>
       </c>
+      <c r="I149" t="n">
+        <v>0.5387050456805469</v>
+      </c>
+      <c r="J149" t="n">
+        <v>9.364442080993236</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4348,6 +5246,12 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
+      <c r="I150" t="n">
+        <v>0.4993725840142484</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4374,6 +5278,12 @@
       <c r="H151" t="n">
         <v>9.505524282364059</v>
       </c>
+      <c r="I151" t="n">
+        <v>0.5334562988915365</v>
+      </c>
+      <c r="J151" t="n">
+        <v>9.270154473502688</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4400,6 +5310,12 @@
       <c r="H152" t="n">
         <v>7.606689235240748</v>
       </c>
+      <c r="I152" t="n">
+        <v>0.5108345046293699</v>
+      </c>
+      <c r="J152" t="n">
+        <v>7.667808211350974</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4426,6 +5342,12 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
+      <c r="I153" t="n">
+        <v>0.412846632270983</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4452,6 +5374,12 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
+      <c r="I154" t="n">
+        <v>0.3298342246811437</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4478,6 +5406,12 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
+      <c r="I155" t="n">
+        <v>0.3572136480359941</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4504,6 +5438,12 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
+      <c r="I156" t="n">
+        <v>0.3741887749057591</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4530,6 +5470,12 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
+      <c r="I157" t="n">
+        <v>0.3881658799920368</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4556,6 +5502,12 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
+      <c r="I158" t="n">
+        <v>0.4507009476489855</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4582,6 +5534,12 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
+      <c r="I159" t="n">
+        <v>0.4551651187261754</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4608,6 +5566,12 @@
       <c r="H160" t="n">
         <v>9.947494988940214</v>
       </c>
+      <c r="I160" t="n">
+        <v>0.5171767453785996</v>
+      </c>
+      <c r="J160" t="n">
+        <v>10.38287793117597</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4634,6 +5598,12 @@
       <c r="H161" t="n">
         <v>11.05561898580616</v>
       </c>
+      <c r="I161" t="n">
+        <v>0.5334017383164491</v>
+      </c>
+      <c r="J161" t="n">
+        <v>11.45339621609133</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4660,6 +5630,12 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
+      <c r="I162" t="n">
+        <v>0.4743620952578725</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4686,6 +5662,12 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
+      <c r="I163" t="n">
+        <v>0.3668795299742783</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4712,6 +5694,12 @@
       <c r="H164" t="n">
         <v>12.09760141977566</v>
       </c>
+      <c r="I164" t="n">
+        <v>0.5933697082603024</v>
+      </c>
+      <c r="J164" t="n">
+        <v>11.84722283912516</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4738,6 +5726,12 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
+      <c r="I165" t="n">
+        <v>0.4658553962380837</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4764,6 +5758,12 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
+      <c r="I166" t="n">
+        <v>0.2622549964863139</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4790,6 +5790,12 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
+      <c r="I167" t="n">
+        <v>0.4823629720517283</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4816,6 +5822,12 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
+      <c r="I168" t="n">
+        <v>0.3399126051516477</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4842,6 +5854,12 @@
       <c r="H169" t="n">
         <v>10.61378864218676</v>
       </c>
+      <c r="I169" t="n">
+        <v>0.5591739024335876</v>
+      </c>
+      <c r="J169" t="n">
+        <v>10.19253004239808</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4868,6 +5886,12 @@
       <c r="H170" t="n">
         <v>15.94532305295505</v>
       </c>
+      <c r="I170" t="n">
+        <v>0.5491999721798354</v>
+      </c>
+      <c r="J170" t="n">
+        <v>16.40037264773607</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4894,6 +5918,12 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
+      <c r="I171" t="n">
+        <v>0.2444434150558256</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4920,6 +5950,12 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
+      <c r="I172" t="n">
+        <v>0.2319667214902781</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4946,6 +5982,12 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
+      <c r="I173" t="n">
+        <v>0.2438121468769278</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4972,6 +6014,12 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
+      <c r="I174" t="n">
+        <v>0.3421373908283196</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4998,6 +6046,12 @@
       <c r="H175" t="n">
         <v>11.45984633625886</v>
       </c>
+      <c r="I175" t="n">
+        <v>0.5295436034234753</v>
+      </c>
+      <c r="J175" t="n">
+        <v>10.16762044443652</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5024,6 +6078,12 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
+      <c r="I176" t="n">
+        <v>0.2832204702211035</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5050,6 +6110,12 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
+      <c r="I177" t="n">
+        <v>0.4032449908579367</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5076,6 +6142,12 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
+      <c r="I178" t="n">
+        <v>0.1960742322958588</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5102,6 +6174,12 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
+      <c r="I179" t="n">
+        <v>0.4190806315562666</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5128,6 +6206,12 @@
       <c r="H180" t="n">
         <v>11.82106403393846</v>
       </c>
+      <c r="I180" t="n">
+        <v>0.5803378859744153</v>
+      </c>
+      <c r="J180" t="n">
+        <v>12.21600626631305</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5154,6 +6238,12 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
+      <c r="I181" t="n">
+        <v>0.3200397384297668</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5180,6 +6270,12 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
+      <c r="I182" t="n">
+        <v>0.2880991776175329</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5206,6 +6302,12 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
+      <c r="I183" t="n">
+        <v>0.4609813367085603</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5232,6 +6334,12 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
+      <c r="I184" t="n">
+        <v>0.4880986863525841</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -5258,6 +6366,12 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
+      <c r="I185" t="n">
+        <v>0.4001012614798406</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -5284,6 +6398,12 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
+      <c r="I186" t="n">
+        <v>0.4200480836832785</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5310,6 +6430,12 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
+      <c r="I187" t="n">
+        <v>0.2979156022021325</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5336,6 +6462,12 @@
       <c r="H188" t="n">
         <v>11.37639841020587</v>
       </c>
+      <c r="I188" t="n">
+        <v>0.5149010414953253</v>
+      </c>
+      <c r="J188" t="n">
+        <v>12.28507681203018</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -5362,6 +6494,12 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
+      <c r="I189" t="n">
+        <v>0.3729539259085058</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -5388,6 +6526,12 @@
       <c r="H190" t="n">
         <v>9.138083897927411</v>
       </c>
+      <c r="I190" t="n">
+        <v>0.6030647291837391</v>
+      </c>
+      <c r="J190" t="n">
+        <v>10.2303281641771</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -5414,6 +6558,12 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
+      <c r="I191" t="n">
+        <v>0.3996579669732285</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -5440,6 +6590,12 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
+      <c r="I192" t="n">
+        <v>0.3084289171372847</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -5466,6 +6622,12 @@
       <c r="H193" t="n">
         <v>15.76990085926105</v>
       </c>
+      <c r="I193" t="n">
+        <v>0.5814735768765408</v>
+      </c>
+      <c r="J193" t="n">
+        <v>16.80421363746139</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -5492,6 +6654,12 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
+      <c r="I194" t="n">
+        <v>0.4197445770066838</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -5518,6 +6686,12 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
+      <c r="I195" t="n">
+        <v>0.3028747804054789</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -5544,6 +6718,12 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
+      <c r="I196" t="n">
+        <v>0.4201387012239293</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -5570,6 +6750,12 @@
       <c r="H197" t="n">
         <v>13.35588993720409</v>
       </c>
+      <c r="I197" t="n">
+        <v>0.5217001467125909</v>
+      </c>
+      <c r="J197" t="n">
+        <v>12.08971669366231</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -5596,6 +6782,12 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
+      <c r="I198" t="n">
+        <v>0.3890197726758582</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -5622,6 +6814,12 @@
       <c r="H199" t="n">
         <v>12.06742321623734</v>
       </c>
+      <c r="I199" t="n">
+        <v>0.5754836356808113</v>
+      </c>
+      <c r="J199" t="n">
+        <v>12.56282172232686</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5648,6 +6846,12 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
+      <c r="I200" t="n">
+        <v>0.490124070605574</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5674,6 +6878,12 @@
       <c r="H201" t="n">
         <v>10.38453870974351</v>
       </c>
+      <c r="I201" t="n">
+        <v>0.5273866634376425</v>
+      </c>
+      <c r="J201" t="n">
+        <v>11.63856048721994</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5700,6 +6910,12 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
+      <c r="I202" t="n">
+        <v>0.4250586133685119</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5726,6 +6942,12 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
+      <c r="I203" t="n">
+        <v>0.3078304510711575</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5752,6 +6974,12 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
+      <c r="I204" t="n">
+        <v>0.4399502201449783</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5778,6 +7006,12 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
+      <c r="I205" t="n">
+        <v>0.4499391387332085</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5804,6 +7038,12 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
+      <c r="I206" t="n">
+        <v>0.3386334894530114</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5830,6 +7070,12 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
+      <c r="I207" t="n">
+        <v>0.454846851537248</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5856,6 +7102,12 @@
       <c r="H208" t="n">
         <v>8.563382602650327</v>
       </c>
+      <c r="I208" t="n">
+        <v>0.5005320182157252</v>
+      </c>
+      <c r="J208" t="n">
+        <v>8.244836167740992</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5882,6 +7134,12 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
+      <c r="I209" t="n">
+        <v>0.251638730397231</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5908,6 +7166,12 @@
       <c r="H210" t="n">
         <v>8.518610157777614</v>
       </c>
+      <c r="I210" t="n">
+        <v>0.5346804361522635</v>
+      </c>
+      <c r="J210" t="n">
+        <v>9.320313963149944</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5934,6 +7198,12 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
+      <c r="I211" t="n">
+        <v>0.4384537659573875</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5960,6 +7230,12 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
+      <c r="I212" t="n">
+        <v>0.3535570590200173</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5986,6 +7262,12 @@
       <c r="H213" t="n">
         <v>16.72846296456684</v>
       </c>
+      <c r="I213" t="n">
+        <v>0.5036327374863453</v>
+      </c>
+      <c r="J213" t="n">
+        <v>17.0724295687813</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -6012,6 +7294,12 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
+      <c r="I214" t="n">
+        <v>0.3915673061638967</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -6038,6 +7326,12 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
+      <c r="I215" t="n">
+        <v>0.3108839338032168</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -6064,6 +7358,12 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
+      <c r="I216" t="n">
+        <v>0.2641891048924035</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -6090,6 +7390,12 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
+      <c r="I217" t="n">
+        <v>0.4378990007695816</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -6116,6 +7422,12 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
+      <c r="I218" t="n">
+        <v>0.376170370473266</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -6142,6 +7454,12 @@
       <c r="H219" t="n">
         <v>11.83343724314619</v>
       </c>
+      <c r="I219" t="n">
+        <v>0.5186389486507915</v>
+      </c>
+      <c r="J219" t="n">
+        <v>12.45408140255578</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -6168,6 +7486,12 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
+      <c r="I220" t="n">
+        <v>0.3680411550058651</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -6194,6 +7518,12 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
+      <c r="I221" t="n">
+        <v>0.4670381235123205</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -6220,6 +7550,12 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
+      <c r="I222" t="n">
+        <v>0.2787279307419736</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -6246,6 +7582,12 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
+      <c r="I223" t="n">
+        <v>0.3131388575402406</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -6272,6 +7614,12 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
+      <c r="I224" t="n">
+        <v>0.4522318579603264</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -6298,6 +7646,12 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
+      <c r="I225" t="n">
+        <v>0.3219258212617143</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -6324,6 +7678,12 @@
       <c r="H226" t="n">
         <v>10.03616446054646</v>
       </c>
+      <c r="I226" t="n">
+        <v>0.5463747285124289</v>
+      </c>
+      <c r="J226" t="n">
+        <v>9.594387777316056</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -6350,6 +7710,12 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
+      <c r="I227" t="n">
+        <v>0.3818480056505233</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -6376,6 +7742,12 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
+      <c r="I228" t="n">
+        <v>0.3094200753962402</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -6402,6 +7774,12 @@
       <c r="H229" t="n">
         <v>9.489197678586295</v>
       </c>
+      <c r="I229" t="n">
+        <v>0.5449870997601597</v>
+      </c>
+      <c r="J229" t="n">
+        <v>10.01700817357829</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -6428,6 +7806,12 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
+      <c r="I230" t="n">
+        <v>0.4521854532683209</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -6454,6 +7838,12 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
+      <c r="I231" t="n">
+        <v>0.3068966420807999</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -6480,6 +7870,12 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
+      <c r="I232" t="n">
+        <v>0.2745311225274637</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -6506,6 +7902,12 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
+      <c r="I233" t="n">
+        <v>0.3272992877128577</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -6532,6 +7934,12 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
+      <c r="I234" t="n">
+        <v>0.2852693227891887</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -6558,6 +7966,12 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
+      <c r="I235" t="n">
+        <v>0.2931170515671103</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -6584,6 +7998,12 @@
       <c r="H236" t="n">
         <v>8.455665810071697</v>
       </c>
+      <c r="I236" t="n">
+        <v>0.5826215494961157</v>
+      </c>
+      <c r="J236" t="n">
+        <v>8.112781335099308</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -6610,6 +8030,12 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
+      <c r="I237" t="n">
+        <v>0.4207692629210483</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -6636,6 +8062,12 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
+      <c r="I238" t="n">
+        <v>0.2769482715672285</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -6662,6 +8094,12 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
+      <c r="I239" t="n">
+        <v>0.2841644052546203</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -6688,6 +8126,12 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
+      <c r="I240" t="n">
+        <v>0.4981715005762226</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -6714,6 +8158,12 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
+      <c r="I241" t="n">
+        <v>0.4553897054375149</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -6740,6 +8190,12 @@
       <c r="H242" t="n">
         <v>10.1954166943275</v>
       </c>
+      <c r="I242" t="n">
+        <v>0.5201115201569693</v>
+      </c>
+      <c r="J242" t="n">
+        <v>10.51728908169212</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6766,6 +8222,12 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
+      <c r="I243" t="n">
+        <v>0.3648276929993957</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6792,6 +8254,12 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
+      <c r="I244" t="n">
+        <v>0.4632798054506373</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6818,6 +8286,12 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
+      <c r="I245" t="n">
+        <v>0.4979809324137528</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6844,6 +8318,12 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
+      <c r="I246" t="n">
+        <v>0.2797628437712667</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6870,6 +8350,12 @@
       <c r="H247" t="n">
         <v>12.35912167985551</v>
       </c>
+      <c r="I247" t="n">
+        <v>0.6263214859392784</v>
+      </c>
+      <c r="J247" t="n">
+        <v>10.90556730485784</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6896,6 +8382,12 @@
       <c r="H248" t="n">
         <v>17.60257219640293</v>
       </c>
+      <c r="I248" t="n">
+        <v>0.5255060976239257</v>
+      </c>
+      <c r="J248" t="n">
+        <v>17.75106433145385</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6922,6 +8414,12 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
+      <c r="I249" t="n">
+        <v>0.4862412010944124</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6948,6 +8446,12 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
+      <c r="I250" t="n">
+        <v>0.3540593210813952</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6974,6 +8478,12 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
+      <c r="I251" t="n">
+        <v>0.2973465152161429</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -7000,6 +8510,12 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
+      <c r="I252" t="n">
+        <v>0.4631817449126328</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -7026,6 +8542,12 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
+      <c r="I253" t="n">
+        <v>0.2611435693939195</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -7052,6 +8574,12 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
+      <c r="I254" t="n">
+        <v>0.4574512886139908</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -7078,6 +8606,12 @@
       <c r="H255" t="n">
         <v>12.7221264821762</v>
       </c>
+      <c r="I255" t="n">
+        <v>0.6893569060647869</v>
+      </c>
+      <c r="J255" t="n">
+        <v>13.46056943114426</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -7104,6 +8638,12 @@
       <c r="H256" t="n">
         <v>15.01137062017843</v>
       </c>
+      <c r="I256" t="n">
+        <v>0.6652490514912864</v>
+      </c>
+      <c r="J256" t="n">
+        <v>15.56445373780981</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -7130,6 +8670,12 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
+      <c r="I257" t="n">
+        <v>0.3352260910651308</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -7156,6 +8702,12 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
+      <c r="I258" t="n">
+        <v>0.3410740972111861</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -7182,6 +8734,12 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
+      <c r="I259" t="n">
+        <v>0.3846904528354466</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -7208,6 +8766,12 @@
       <c r="H260" t="n">
         <v>13.6084398054828</v>
       </c>
+      <c r="I260" t="n">
+        <v>0.6145327594439053</v>
+      </c>
+      <c r="J260" t="n">
+        <v>12.89833904863461</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -7234,6 +8798,12 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
+      <c r="I261" t="n">
+        <v>0.3264107378356779</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -7260,6 +8830,12 @@
       <c r="H262" t="n">
         <v>12.4732718486127</v>
       </c>
+      <c r="I262" t="n">
+        <v>0.5796925144889652</v>
+      </c>
+      <c r="J262" t="n">
+        <v>12.75470921958003</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -7286,6 +8862,12 @@
       <c r="H263" t="n">
         <v>8.642324932111828</v>
       </c>
+      <c r="I263" t="n">
+        <v>0.5907726819681968</v>
+      </c>
+      <c r="J263" t="n">
+        <v>8.955695256861487</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -7312,6 +8894,12 @@
       <c r="H264" t="n">
         <v>14.97346982755835</v>
       </c>
+      <c r="I264" t="n">
+        <v>0.6014748820908369</v>
+      </c>
+      <c r="J264" t="n">
+        <v>16.33630676887596</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -7338,6 +8926,12 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
+      <c r="I265" t="n">
+        <v>0.3326825410586638</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -7364,6 +8958,12 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
+      <c r="I266" t="n">
+        <v>0.3082250585761764</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -7390,6 +8990,12 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
+      <c r="I267" t="n">
+        <v>0.3452783362527802</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -7416,6 +9022,12 @@
       <c r="H268" t="n">
         <v>9.757255498317624</v>
       </c>
+      <c r="I268" t="n">
+        <v>0.9010848485999983</v>
+      </c>
+      <c r="J268" t="n">
+        <v>9.834350450541521</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -7442,6 +9054,12 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
+      <c r="I269" t="n">
+        <v>0.4350435964551561</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -7468,6 +9086,12 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
+      <c r="I270" t="n">
+        <v>0.4981304924579063</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -7494,6 +9118,12 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
+      <c r="I271" t="n">
+        <v>0.4552132964232502</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -7520,6 +9150,12 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
+      <c r="I272" t="n">
+        <v>0.4968073012916852</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -7546,6 +9182,12 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
+      <c r="I273" t="n">
+        <v>0.2276765593773152</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -7572,6 +9214,12 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
+      <c r="I274" t="n">
+        <v>0.359434778077181</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -7598,6 +9246,12 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
+      <c r="I275" t="n">
+        <v>0.3555151479707752</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -7624,6 +9278,12 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
+      <c r="I276" t="n">
+        <v>0.390098071615255</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -7650,6 +9310,12 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
+      <c r="I277" t="n">
+        <v>0.3424890503198677</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -7676,6 +9342,12 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
+      <c r="I278" t="n">
+        <v>0.206769462941171</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -7702,6 +9374,12 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
+      <c r="I279" t="n">
+        <v>0.4361761645013694</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -7728,6 +9406,12 @@
       <c r="H280" t="n">
         <v>14.95470558277887</v>
       </c>
+      <c r="I280" t="n">
+        <v>0.5450164032245027</v>
+      </c>
+      <c r="J280" t="n">
+        <v>15.69436550250986</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -7754,6 +9438,12 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
+      <c r="I281" t="n">
+        <v>0.4652931475169577</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -7780,6 +9470,12 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
+      <c r="I282" t="n">
+        <v>0.3623647323895521</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -7806,6 +9502,12 @@
       <c r="H283" t="n">
         <v>9.946886783161107</v>
       </c>
+      <c r="I283" t="n">
+        <v>0.5367613745550728</v>
+      </c>
+      <c r="J283" t="n">
+        <v>10.62914096136997</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -7832,6 +9534,12 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
+      <c r="I284" t="n">
+        <v>0.4753643146047102</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -7858,6 +9566,12 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
+      <c r="I285" t="n">
+        <v>0.4384979495025895</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -7884,6 +9598,12 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
+      <c r="I286" t="n">
+        <v>0.4877727177569567</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7910,6 +9630,12 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
+      <c r="I287" t="n">
+        <v>0.4644337123691616</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7936,6 +9662,12 @@
       <c r="H288" t="n">
         <v>15.598165549538</v>
       </c>
+      <c r="I288" t="n">
+        <v>0.5704151574348185</v>
+      </c>
+      <c r="J288" t="n">
+        <v>14.94267762544645</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7962,6 +9694,12 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
+      <c r="I289" t="n">
+        <v>0.4030649046215303</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7988,6 +9726,12 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
+      <c r="I290" t="n">
+        <v>0.2662819040436107</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -8014,6 +9758,12 @@
       <c r="H291" t="n">
         <v>9.020127311174177</v>
       </c>
+      <c r="I291" t="n">
+        <v>0.5588338087060057</v>
+      </c>
+      <c r="J291" t="n">
+        <v>9.209396028353066</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -8040,6 +9790,12 @@
       <c r="H292" t="n">
         <v>13.04930047029184</v>
       </c>
+      <c r="I292" t="n">
+        <v>0.5089609795820494</v>
+      </c>
+      <c r="J292" t="n">
+        <v>12.41197433767097</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -8066,6 +9822,12 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
+      <c r="I293" t="n">
+        <v>0.3729004300566135</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -8092,6 +9854,12 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
+      <c r="I294" t="n">
+        <v>0.370691919655983</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -8118,6 +9886,12 @@
       <c r="H295" t="n">
         <v>16.13953084913132</v>
       </c>
+      <c r="I295" t="n">
+        <v>0.643688299489103</v>
+      </c>
+      <c r="J295" t="n">
+        <v>15.7630608329952</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -8144,6 +9918,12 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
+      <c r="I296" t="n">
+        <v>0.3199810277300983</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -8170,6 +9950,12 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
+      <c r="I297" t="n">
+        <v>0.4359028535187347</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -8196,6 +9982,12 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
+      <c r="I298" t="n">
+        <v>0.4626752877974686</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -8222,6 +10014,12 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
+      <c r="I299" t="n">
+        <v>0.4982782293695275</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -8248,6 +10046,12 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
+      <c r="I300" t="n">
+        <v>0.3021813906826371</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -8274,6 +10078,12 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
+      <c r="I301" t="n">
+        <v>0.4737449085736847</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -8300,6 +10110,12 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
+      <c r="I302" t="n">
+        <v>0.4206726848133082</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -8326,6 +10142,12 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
+      <c r="I303" t="n">
+        <v>0.3498885982668779</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -8352,6 +10174,12 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
+      <c r="I304" t="n">
+        <v>0.3503545760940845</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -8378,6 +10206,12 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
+      <c r="I305" t="n">
+        <v>0.4155849772971717</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -8404,6 +10238,12 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
+      <c r="I306" t="n">
+        <v>0.3643349266496242</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -8430,6 +10270,12 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
+      <c r="I307" t="n">
+        <v>0.3549363190057612</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -8456,6 +10302,12 @@
       <c r="H308" t="n">
         <v>15.53061832878315</v>
       </c>
+      <c r="I308" t="n">
+        <v>0.5449834722905095</v>
+      </c>
+      <c r="J308" t="n">
+        <v>15.84298176718007</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -8482,6 +10334,12 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
+      <c r="I309" t="n">
+        <v>0.4346985961246684</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -8508,6 +10366,12 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
+      <c r="I310" t="n">
+        <v>0.364407621766297</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -8534,6 +10398,12 @@
       <c r="H311" t="n">
         <v>10.97502686085682</v>
       </c>
+      <c r="I311" t="n">
+        <v>0.6011012053514835</v>
+      </c>
+      <c r="J311" t="n">
+        <v>10.70039059833899</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -8560,6 +10430,12 @@
       <c r="H312" t="n">
         <v>9.24771296886791</v>
       </c>
+      <c r="I312" t="n">
+        <v>0.6248735503462455</v>
+      </c>
+      <c r="J312" t="n">
+        <v>9.226332091051455</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -8586,6 +10462,12 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
+      <c r="I313" t="n">
+        <v>0.4593980483089934</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -8612,6 +10494,12 @@
       <c r="H314" t="n">
         <v>11.39969283855558</v>
       </c>
+      <c r="I314" t="n">
+        <v>0.5154794438913222</v>
+      </c>
+      <c r="J314" t="n">
+        <v>12.92692028852257</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -8638,6 +10526,12 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
+      <c r="I315" t="n">
+        <v>0.4073135887848307</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -8664,6 +10558,12 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
+      <c r="I316" t="n">
+        <v>0.4201573072580567</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -8690,6 +10590,12 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
+      <c r="I317" t="n">
+        <v>0.4656378151732198</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -8716,6 +10622,12 @@
       <c r="H318" t="n">
         <v>9.472611748536242</v>
       </c>
+      <c r="I318" t="n">
+        <v>0.5714095770866948</v>
+      </c>
+      <c r="J318" t="n">
+        <v>10.05772833016773</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -8742,6 +10654,12 @@
       <c r="H319" t="n">
         <v>10.34790639694777</v>
       </c>
+      <c r="I319" t="n">
+        <v>0.586865923201826</v>
+      </c>
+      <c r="J319" t="n">
+        <v>10.29606068901337</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -8768,6 +10686,12 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
+      <c r="I320" t="n">
+        <v>0.34368311797396</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -8794,6 +10718,12 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
+      <c r="I321" t="n">
+        <v>0.3817911141468943</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -8820,6 +10750,12 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
+      <c r="I322" t="n">
+        <v>0.3778442414247203</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -8846,6 +10782,12 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
+      <c r="I323" t="n">
+        <v>0.3213262590147903</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -8872,6 +10814,12 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
+      <c r="I324" t="n">
+        <v>0.4661510567612296</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -8898,6 +10846,12 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
+      <c r="I325" t="n">
+        <v>0.2888628677110496</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -8924,6 +10878,12 @@
       <c r="H326" t="n">
         <v>11.97791671040299</v>
       </c>
+      <c r="I326" t="n">
+        <v>0.7249434396453686</v>
+      </c>
+      <c r="J326" t="n">
+        <v>12.36133889868068</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -8950,6 +10910,12 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
+      <c r="I327" t="n">
+        <v>0.3902638767303936</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -8976,6 +10942,12 @@
       <c r="H328" t="n">
         <v>15.28958011913099</v>
       </c>
+      <c r="I328" t="n">
+        <v>0.5456878348810308</v>
+      </c>
+      <c r="J328" t="n">
+        <v>14.38057338487376</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -9002,6 +10974,12 @@
       <c r="H329" t="n">
         <v>12.12655438440644</v>
       </c>
+      <c r="I329" t="n">
+        <v>0.6426830473672395</v>
+      </c>
+      <c r="J329" t="n">
+        <v>11.76045743473088</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -9028,6 +11006,12 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
+      <c r="I330" t="n">
+        <v>0.2620293662546562</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -9054,6 +11038,12 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
+      <c r="I331" t="n">
+        <v>0.3019601839530812</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -9080,6 +11070,12 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
+      <c r="I332" t="n">
+        <v>0.3773957161721797</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -9106,6 +11102,12 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
+      <c r="I333" t="n">
+        <v>0.2523178013124505</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -9132,6 +11134,12 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
+      <c r="I334" t="n">
+        <v>0.3419001914627984</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -9158,6 +11166,12 @@
       <c r="H335" t="n">
         <v>8.096959788180225</v>
       </c>
+      <c r="I335" t="n">
+        <v>0.5113572460968971</v>
+      </c>
+      <c r="J335" t="n">
+        <v>9.093212882364485</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -9184,6 +11198,12 @@
       <c r="H336" t="n">
         <v>10.2543773897651</v>
       </c>
+      <c r="I336" t="n">
+        <v>0.5281320349548639</v>
+      </c>
+      <c r="J336" t="n">
+        <v>11.82887554778089</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -9210,6 +11230,12 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
+      <c r="I337" t="n">
+        <v>0.3215476343835763</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -9236,6 +11262,12 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
+      <c r="I338" t="n">
+        <v>0.2484341611660225</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -9262,6 +11294,12 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
+      <c r="I339" t="n">
+        <v>0.3518652296438914</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -9288,6 +11326,12 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
+      <c r="I340" t="n">
+        <v>0.4692651029372389</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -9314,6 +11358,12 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
+      <c r="I341" t="n">
+        <v>0.3714176351112878</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -9340,6 +11390,12 @@
       <c r="H342" t="n">
         <v>9.103973190464121</v>
       </c>
+      <c r="I342" t="n">
+        <v>0.5624847722613798</v>
+      </c>
+      <c r="J342" t="n">
+        <v>9.72557319210085</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -9366,6 +11422,12 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
+      <c r="I343" t="n">
+        <v>0.1025217907394451</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -9392,6 +11454,12 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
+      <c r="I344" t="n">
+        <v>0.4578818650555503</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -9418,6 +11486,12 @@
       <c r="H345" t="n">
         <v>10.64377604195962</v>
       </c>
+      <c r="I345" t="n">
+        <v>0.6755736277198802</v>
+      </c>
+      <c r="J345" t="n">
+        <v>11.33972944987552</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -9444,6 +11518,12 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
+      <c r="I346" t="n">
+        <v>0.2610036046599456</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -9470,6 +11550,12 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
+      <c r="I347" t="n">
+        <v>0.3551218414460531</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -9496,6 +11582,12 @@
       <c r="H348" t="n">
         <v>10.0646346398644</v>
       </c>
+      <c r="I348" t="n">
+        <v>0.5005305129041657</v>
+      </c>
+      <c r="J348" t="n">
+        <v>10.67812004764377</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -9522,6 +11614,12 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
+      <c r="I349" t="n">
+        <v>0.2682197592240025</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -9548,6 +11646,12 @@
       <c r="H350" t="n">
         <v>6.864641355176719</v>
       </c>
+      <c r="I350" t="n">
+        <v>0.5189042226287303</v>
+      </c>
+      <c r="J350" t="n">
+        <v>7.488768469098594</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -9574,6 +11678,12 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
+      <c r="I351" t="n">
+        <v>0.2809222547032483</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -9600,6 +11710,12 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
+      <c r="I352" t="n">
+        <v>0.2783430063808375</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -9626,6 +11742,12 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
+      <c r="I353" t="n">
+        <v>0.3264671351275616</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -9652,6 +11774,12 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
+      <c r="I354" t="n">
+        <v>0.4220230249262456</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -9678,6 +11806,12 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
+      <c r="I355" t="n">
+        <v>0.3263344554498481</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -9704,6 +11838,12 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
+      <c r="I356" t="n">
+        <v>0.3370191294863614</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -9730,6 +11870,12 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
+      <c r="I357" t="n">
+        <v>0.3177676638712187</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -9756,6 +11902,12 @@
       <c r="H358" t="n">
         <v>16.76572176833787</v>
       </c>
+      <c r="I358" t="n">
+        <v>0.5702432206754465</v>
+      </c>
+      <c r="J358" t="n">
+        <v>16.06674952640263</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -9782,6 +11934,12 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
+      <c r="I359" t="n">
+        <v>0.4206266994343501</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -9808,6 +11966,12 @@
       <c r="H360" t="n">
         <v>10.78197404879871</v>
       </c>
+      <c r="I360" t="n">
+        <v>0.599134674591312</v>
+      </c>
+      <c r="J360" t="n">
+        <v>11.54438389698595</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -9834,6 +11998,12 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
+      <c r="I361" t="n">
+        <v>0.3406538445918682</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -9860,6 +12030,12 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
+      <c r="I362" t="n">
+        <v>0.3345055303449864</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -9886,6 +12062,12 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
+      <c r="I363" t="n">
+        <v>0.353999279560805</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -9912,6 +12094,12 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
+      <c r="I364" t="n">
+        <v>0.3593088063742605</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -9938,6 +12126,12 @@
       <c r="H365" t="n">
         <v>0</v>
       </c>
+      <c r="I365" t="n">
+        <v>0.484383988113018</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -9964,6 +12158,12 @@
       <c r="H366" t="n">
         <v>0</v>
       </c>
+      <c r="I366" t="n">
+        <v>0.4403199602787066</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -9990,6 +12190,12 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
+      <c r="I367" t="n">
+        <v>0.4607168603918522</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -10016,6 +12222,12 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
+      <c r="I368" t="n">
+        <v>0.4664318410324241</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -10042,6 +12254,12 @@
       <c r="H369" t="n">
         <v>0</v>
       </c>
+      <c r="I369" t="n">
+        <v>0.3289669863588901</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -10068,6 +12286,12 @@
       <c r="H370" t="n">
         <v>0</v>
       </c>
+      <c r="I370" t="n">
+        <v>0.365084644519247</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -10094,6 +12318,12 @@
       <c r="H371" t="n">
         <v>0</v>
       </c>
+      <c r="I371" t="n">
+        <v>0.4848420780000257</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -10120,6 +12350,12 @@
       <c r="H372" t="n">
         <v>0</v>
       </c>
+      <c r="I372" t="n">
+        <v>0.3258226260722826</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -10146,6 +12382,12 @@
       <c r="H373" t="n">
         <v>0</v>
       </c>
+      <c r="I373" t="n">
+        <v>0.4468245740847214</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -10172,6 +12414,12 @@
       <c r="H374" t="n">
         <v>0</v>
       </c>
+      <c r="I374" t="n">
+        <v>0.3736095507019578</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -10198,6 +12446,12 @@
       <c r="H375" t="n">
         <v>0</v>
       </c>
+      <c r="I375" t="n">
+        <v>0.3512086275361555</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -10224,6 +12478,12 @@
       <c r="H376" t="n">
         <v>12.38839178385185</v>
       </c>
+      <c r="I376" t="n">
+        <v>0.5659324894883343</v>
+      </c>
+      <c r="J376" t="n">
+        <v>12.2769609406863</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -10250,6 +12510,12 @@
       <c r="H377" t="n">
         <v>0</v>
       </c>
+      <c r="I377" t="n">
+        <v>0.4655477848771451</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -10276,6 +12542,12 @@
       <c r="H378" t="n">
         <v>0</v>
       </c>
+      <c r="I378" t="n">
+        <v>0.1773952061114562</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -10302,6 +12574,12 @@
       <c r="H379" t="n">
         <v>13.14029264515946</v>
       </c>
+      <c r="I379" t="n">
+        <v>0.5140893786102125</v>
+      </c>
+      <c r="J379" t="n">
+        <v>12.40055992019885</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -10328,6 +12606,12 @@
       <c r="H380" t="n">
         <v>0</v>
       </c>
+      <c r="I380" t="n">
+        <v>0.4270115176811674</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -10354,6 +12638,12 @@
       <c r="H381" t="n">
         <v>10.06734034347714</v>
       </c>
+      <c r="I381" t="n">
+        <v>0.5642352643527919</v>
+      </c>
+      <c r="J381" t="n">
+        <v>9.701870016775942</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -10380,6 +12670,12 @@
       <c r="H382" t="n">
         <v>0</v>
       </c>
+      <c r="I382" t="n">
+        <v>0.4365724486504988</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -10406,6 +12702,12 @@
       <c r="H383" t="n">
         <v>0</v>
       </c>
+      <c r="I383" t="n">
+        <v>0.205812831319388</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -10432,6 +12734,12 @@
       <c r="H384" t="n">
         <v>15.93780235217193</v>
       </c>
+      <c r="I384" t="n">
+        <v>0.5144458711863118</v>
+      </c>
+      <c r="J384" t="n">
+        <v>15.56262899748711</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -10458,6 +12766,12 @@
       <c r="H385" t="n">
         <v>0</v>
       </c>
+      <c r="I385" t="n">
+        <v>0.4345542564501483</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -10484,6 +12798,12 @@
       <c r="H386" t="n">
         <v>0</v>
       </c>
+      <c r="I386" t="n">
+        <v>0.3794821890522684</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -10510,6 +12830,12 @@
       <c r="H387" t="n">
         <v>0</v>
       </c>
+      <c r="I387" t="n">
+        <v>0.3405075945816172</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -10536,6 +12862,12 @@
       <c r="H388" t="n">
         <v>0</v>
       </c>
+      <c r="I388" t="n">
+        <v>0.3383018950671289</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -10562,6 +12894,12 @@
       <c r="H389" t="n">
         <v>0</v>
       </c>
+      <c r="I389" t="n">
+        <v>0.4240459546913191</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -10588,6 +12926,12 @@
       <c r="H390" t="n">
         <v>0</v>
       </c>
+      <c r="I390" t="n">
+        <v>0.4899643886075022</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -10614,6 +12958,12 @@
       <c r="H391" t="n">
         <v>12.304211658258</v>
       </c>
+      <c r="I391" t="n">
+        <v>0.5350730857382618</v>
+      </c>
+      <c r="J391" t="n">
+        <v>12.90620726944955</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -10640,6 +12990,12 @@
       <c r="H392" t="n">
         <v>14.86334436728247</v>
       </c>
+      <c r="I392" t="n">
+        <v>0.6375221109457512</v>
+      </c>
+      <c r="J392" t="n">
+        <v>14.6982826091369</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -10666,6 +13022,12 @@
       <c r="H393" t="n">
         <v>0</v>
       </c>
+      <c r="I393" t="n">
+        <v>0.3270866806971846</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -10692,6 +13054,12 @@
       <c r="H394" t="n">
         <v>12.56937746083078</v>
       </c>
+      <c r="I394" t="n">
+        <v>0.5731780632047251</v>
+      </c>
+      <c r="J394" t="n">
+        <v>13.6221556638786</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -10718,6 +13086,12 @@
       <c r="H395" t="n">
         <v>11.07740930010466</v>
       </c>
+      <c r="I395" t="n">
+        <v>0.5212865457566972</v>
+      </c>
+      <c r="J395" t="n">
+        <v>12.27260271553843</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -10744,6 +13118,12 @@
       <c r="H396" t="n">
         <v>11.82921710949347</v>
       </c>
+      <c r="I396" t="n">
+        <v>0.7209964399024581</v>
+      </c>
+      <c r="J396" t="n">
+        <v>11.39283532316656</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -10770,6 +13150,12 @@
       <c r="H397" t="n">
         <v>0</v>
       </c>
+      <c r="I397" t="n">
+        <v>0.3400752529246829</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -10796,6 +13182,12 @@
       <c r="H398" t="n">
         <v>14.27753256380524</v>
       </c>
+      <c r="I398" t="n">
+        <v>0.5087845721141914</v>
+      </c>
+      <c r="J398" t="n">
+        <v>13.40055605011702</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -10822,6 +13214,12 @@
       <c r="H399" t="n">
         <v>0</v>
       </c>
+      <c r="I399" t="n">
+        <v>0.3757216916166554</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -10848,6 +13246,12 @@
       <c r="H400" t="n">
         <v>9.506685006800216</v>
       </c>
+      <c r="I400" t="n">
+        <v>0.5406647873040102</v>
+      </c>
+      <c r="J400" t="n">
+        <v>9.094454772597851</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -10874,6 +13278,12 @@
       <c r="H401" t="n">
         <v>0</v>
       </c>
+      <c r="I401" t="n">
+        <v>0.3703398642211275</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -10900,6 +13310,12 @@
       <c r="H402" t="n">
         <v>0</v>
       </c>
+      <c r="I402" t="n">
+        <v>0.4706781786389285</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -10926,6 +13342,12 @@
       <c r="H403" t="n">
         <v>0</v>
       </c>
+      <c r="I403" t="n">
+        <v>0.3990053936371976</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -10952,6 +13374,12 @@
       <c r="H404" t="n">
         <v>0</v>
       </c>
+      <c r="I404" t="n">
+        <v>0.4731355560913765</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -10978,6 +13406,12 @@
       <c r="H405" t="n">
         <v>0</v>
       </c>
+      <c r="I405" t="n">
+        <v>0.4765882862443333</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -11004,6 +13438,12 @@
       <c r="H406" t="n">
         <v>10.99547014769019</v>
       </c>
+      <c r="I406" t="n">
+        <v>0.7607008095526993</v>
+      </c>
+      <c r="J406" t="n">
+        <v>11.40317174333778</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -11030,6 +13470,12 @@
       <c r="H407" t="n">
         <v>0</v>
       </c>
+      <c r="I407" t="n">
+        <v>0.4227122072274947</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -11056,6 +13502,12 @@
       <c r="H408" t="n">
         <v>0</v>
       </c>
+      <c r="I408" t="n">
+        <v>0.453457287310579</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -11082,6 +13534,12 @@
       <c r="H409" t="n">
         <v>0</v>
       </c>
+      <c r="I409" t="n">
+        <v>0.4147320181000164</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -11108,6 +13566,12 @@
       <c r="H410" t="n">
         <v>0</v>
       </c>
+      <c r="I410" t="n">
+        <v>0.2894433547336816</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -11134,6 +13598,12 @@
       <c r="H411" t="n">
         <v>0</v>
       </c>
+      <c r="I411" t="n">
+        <v>0.4067948001186333</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -11160,6 +13630,12 @@
       <c r="H412" t="n">
         <v>0</v>
       </c>
+      <c r="I412" t="n">
+        <v>0.4096301665734605</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -11186,6 +13662,12 @@
       <c r="H413" t="n">
         <v>11.03793196980677</v>
       </c>
+      <c r="I413" t="n">
+        <v>0.544876788490583</v>
+      </c>
+      <c r="J413" t="n">
+        <v>11.53133335247094</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -11212,6 +13694,12 @@
       <c r="H414" t="n">
         <v>0</v>
       </c>
+      <c r="I414" t="n">
+        <v>0.4649955315237332</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -11238,6 +13726,12 @@
       <c r="H415" t="n">
         <v>12.91195005835842</v>
       </c>
+      <c r="I415" t="n">
+        <v>0.6114375075316857</v>
+      </c>
+      <c r="J415" t="n">
+        <v>11.83484559755721</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -11264,6 +13758,12 @@
       <c r="H416" t="n">
         <v>0</v>
       </c>
+      <c r="I416" t="n">
+        <v>0.3269624979838799</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -11290,6 +13790,12 @@
       <c r="H417" t="n">
         <v>0</v>
       </c>
+      <c r="I417" t="n">
+        <v>0.3536757666335089</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -11316,6 +13822,12 @@
       <c r="H418" t="n">
         <v>12.91413571032811</v>
       </c>
+      <c r="I418" t="n">
+        <v>0.6227468574283028</v>
+      </c>
+      <c r="J418" t="n">
+        <v>13.16851090336251</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -11342,6 +13854,12 @@
       <c r="H419" t="n">
         <v>0</v>
       </c>
+      <c r="I419" t="n">
+        <v>0.4184829961163122</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -11368,6 +13886,12 @@
       <c r="H420" t="n">
         <v>0</v>
       </c>
+      <c r="I420" t="n">
+        <v>0.3715994967219298</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -11394,6 +13918,12 @@
       <c r="H421" t="n">
         <v>0</v>
       </c>
+      <c r="I421" t="n">
+        <v>0.4422932174095281</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -11420,6 +13950,12 @@
       <c r="H422" t="n">
         <v>14.32048140471253</v>
       </c>
+      <c r="I422" t="n">
+        <v>0.5261238713551307</v>
+      </c>
+      <c r="J422" t="n">
+        <v>15.16908903184117</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -11446,6 +13982,12 @@
       <c r="H423" t="n">
         <v>11.01299964073887</v>
       </c>
+      <c r="I423" t="n">
+        <v>0.6925415676934525</v>
+      </c>
+      <c r="J423" t="n">
+        <v>10.20171911454617</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -11472,6 +14014,12 @@
       <c r="H424" t="n">
         <v>0</v>
       </c>
+      <c r="I424" t="n">
+        <v>0.3849480357899168</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -11498,6 +14046,12 @@
       <c r="H425" t="n">
         <v>14.96879904908583</v>
       </c>
+      <c r="I425" t="n">
+        <v>0.5419727562460512</v>
+      </c>
+      <c r="J425" t="n">
+        <v>16.33664369710122</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -11524,6 +14078,12 @@
       <c r="H426" t="n">
         <v>0</v>
       </c>
+      <c r="I426" t="n">
+        <v>0.4048847903852135</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -11550,6 +14110,12 @@
       <c r="H427" t="n">
         <v>0</v>
       </c>
+      <c r="I427" t="n">
+        <v>0.3546351486658959</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -11576,6 +14142,12 @@
       <c r="H428" t="n">
         <v>11.48402995414308</v>
       </c>
+      <c r="I428" t="n">
+        <v>0.513529911831155</v>
+      </c>
+      <c r="J428" t="n">
+        <v>11.95887207892306</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -11602,6 +14174,12 @@
       <c r="H429" t="n">
         <v>0</v>
       </c>
+      <c r="I429" t="n">
+        <v>0.4738364859984261</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -11628,6 +14206,12 @@
       <c r="H430" t="n">
         <v>0</v>
       </c>
+      <c r="I430" t="n">
+        <v>0.3587003499960823</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -11654,6 +14238,12 @@
       <c r="H431" t="n">
         <v>0</v>
       </c>
+      <c r="I431" t="n">
+        <v>0.364105141898927</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -11680,6 +14270,12 @@
       <c r="H432" t="n">
         <v>11.04756334424912</v>
       </c>
+      <c r="I432" t="n">
+        <v>0.5124229734938412</v>
+      </c>
+      <c r="J432" t="n">
+        <v>11.51011530321861</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -11706,6 +14302,12 @@
       <c r="H433" t="n">
         <v>0</v>
       </c>
+      <c r="I433" t="n">
+        <v>0.3956373206113713</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -11732,6 +14334,12 @@
       <c r="H434" t="n">
         <v>0</v>
       </c>
+      <c r="I434" t="n">
+        <v>0.2971060143494531</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -11758,6 +14366,12 @@
       <c r="H435" t="n">
         <v>12.94439287905519</v>
       </c>
+      <c r="I435" t="n">
+        <v>0.5561305384122895</v>
+      </c>
+      <c r="J435" t="n">
+        <v>15.23706765186844</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -11784,6 +14398,12 @@
       <c r="H436" t="n">
         <v>0</v>
       </c>
+      <c r="I436" t="n">
+        <v>0.4659989099294577</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -11810,6 +14430,12 @@
       <c r="H437" t="n">
         <v>15.27849820093802</v>
       </c>
+      <c r="I437" t="n">
+        <v>0.5590068388006337</v>
+      </c>
+      <c r="J437" t="n">
+        <v>15.95105903092104</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -11836,6 +14462,12 @@
       <c r="H438" t="n">
         <v>0</v>
       </c>
+      <c r="I438" t="n">
+        <v>0.4725757636234527</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -11862,6 +14494,12 @@
       <c r="H439" t="n">
         <v>15.51910871257768</v>
       </c>
+      <c r="I439" t="n">
+        <v>0.5415078070142798</v>
+      </c>
+      <c r="J439" t="n">
+        <v>15.52943462512686</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -11888,6 +14526,12 @@
       <c r="H440" t="n">
         <v>12.86632915731007</v>
       </c>
+      <c r="I440" t="n">
+        <v>0.5093902634712162</v>
+      </c>
+      <c r="J440" t="n">
+        <v>12.54302976630512</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -11914,6 +14558,12 @@
       <c r="H441" t="n">
         <v>0</v>
       </c>
+      <c r="I441" t="n">
+        <v>0.2666506415061168</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -11940,6 +14590,12 @@
       <c r="H442" t="n">
         <v>0</v>
       </c>
+      <c r="I442" t="n">
+        <v>0.4142050968228162</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -11966,6 +14622,12 @@
       <c r="H443" t="n">
         <v>12.86812523017005</v>
       </c>
+      <c r="I443" t="n">
+        <v>0.5289892014275434</v>
+      </c>
+      <c r="J443" t="n">
+        <v>13.24992493103011</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -11992,6 +14654,12 @@
       <c r="H444" t="n">
         <v>0</v>
       </c>
+      <c r="I444" t="n">
+        <v>0.3418826640529779</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -12018,6 +14686,12 @@
       <c r="H445" t="n">
         <v>0</v>
       </c>
+      <c r="I445" t="n">
+        <v>0.3540885609135985</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -12044,6 +14718,12 @@
       <c r="H446" t="n">
         <v>0</v>
       </c>
+      <c r="I446" t="n">
+        <v>0.3645115096289508</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -12070,6 +14750,12 @@
       <c r="H447" t="n">
         <v>10.80147639168488</v>
       </c>
+      <c r="I447" t="n">
+        <v>0.5349185312159677</v>
+      </c>
+      <c r="J447" t="n">
+        <v>10.89448492290098</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -12096,6 +14782,12 @@
       <c r="H448" t="n">
         <v>0</v>
       </c>
+      <c r="I448" t="n">
+        <v>0.2097999911191437</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -12122,6 +14814,12 @@
       <c r="H449" t="n">
         <v>0</v>
       </c>
+      <c r="I449" t="n">
+        <v>0.490050552881261</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -12148,6 +14846,12 @@
       <c r="H450" t="n">
         <v>0</v>
       </c>
+      <c r="I450" t="n">
+        <v>0.3112239136162251</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -12174,6 +14878,12 @@
       <c r="H451" t="n">
         <v>0</v>
       </c>
+      <c r="I451" t="n">
+        <v>0.3668478397653312</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -12200,6 +14910,12 @@
       <c r="H452" t="n">
         <v>0</v>
       </c>
+      <c r="I452" t="n">
+        <v>0.4540821912625623</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -12226,6 +14942,12 @@
       <c r="H453" t="n">
         <v>0</v>
       </c>
+      <c r="I453" t="n">
+        <v>0.3886828651862911</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -12252,6 +14974,12 @@
       <c r="H454" t="n">
         <v>0</v>
       </c>
+      <c r="I454" t="n">
+        <v>0.4125154642098608</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -12278,6 +15006,12 @@
       <c r="H455" t="n">
         <v>0</v>
       </c>
+      <c r="I455" t="n">
+        <v>0.4106906054996873</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -12304,6 +15038,12 @@
       <c r="H456" t="n">
         <v>11.99333386911233</v>
       </c>
+      <c r="I456" t="n">
+        <v>0.7297632397275192</v>
+      </c>
+      <c r="J456" t="n">
+        <v>9.883803958922732</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -12330,6 +15070,12 @@
       <c r="H457" t="n">
         <v>0</v>
       </c>
+      <c r="I457" t="n">
+        <v>0.4593949618108442</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -12356,6 +15102,12 @@
       <c r="H458" t="n">
         <v>0</v>
       </c>
+      <c r="I458" t="n">
+        <v>0.4914495997912695</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -12382,6 +15134,12 @@
       <c r="H459" t="n">
         <v>0</v>
       </c>
+      <c r="I459" t="n">
+        <v>0.377112985057499</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -12408,6 +15166,12 @@
       <c r="H460" t="n">
         <v>0</v>
       </c>
+      <c r="I460" t="n">
+        <v>0.2863716169765441</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -12434,6 +15198,12 @@
       <c r="H461" t="n">
         <v>0</v>
       </c>
+      <c r="I461" t="n">
+        <v>0.3389281003109441</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -12460,6 +15230,12 @@
       <c r="H462" t="n">
         <v>0</v>
       </c>
+      <c r="I462" t="n">
+        <v>0.4563934287299143</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -12486,6 +15262,12 @@
       <c r="H463" t="n">
         <v>14.28366155506695</v>
       </c>
+      <c r="I463" t="n">
+        <v>0.5211303509228814</v>
+      </c>
+      <c r="J463" t="n">
+        <v>14.91643818167943</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -12512,6 +15294,12 @@
       <c r="H464" t="n">
         <v>12.05055938393888</v>
       </c>
+      <c r="I464" t="n">
+        <v>0.651278618071601</v>
+      </c>
+      <c r="J464" t="n">
+        <v>12.56998639476187</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -12538,6 +15326,12 @@
       <c r="H465" t="n">
         <v>12.45422331771841</v>
       </c>
+      <c r="I465" t="n">
+        <v>0.5206343089196548</v>
+      </c>
+      <c r="J465" t="n">
+        <v>12.24746509046101</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -12564,6 +15358,12 @@
       <c r="H466" t="n">
         <v>8.878432384243036</v>
       </c>
+      <c r="I466" t="n">
+        <v>0.5419756458439943</v>
+      </c>
+      <c r="J466" t="n">
+        <v>10.01616403222536</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -12590,6 +15390,12 @@
       <c r="H467" t="n">
         <v>10.65193475425718</v>
       </c>
+      <c r="I467" t="n">
+        <v>0.6933930065625207</v>
+      </c>
+      <c r="J467" t="n">
+        <v>10.07498077624057</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -12616,6 +15422,12 @@
       <c r="H468" t="n">
         <v>0</v>
       </c>
+      <c r="I468" t="n">
+        <v>0.4340163772442888</v>
+      </c>
+      <c r="J468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -12642,6 +15454,12 @@
       <c r="H469" t="n">
         <v>13.94782413071115</v>
       </c>
+      <c r="I469" t="n">
+        <v>0.7044755082352172</v>
+      </c>
+      <c r="J469" t="n">
+        <v>15.38903345030961</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -12668,6 +15486,12 @@
       <c r="H470" t="n">
         <v>0</v>
       </c>
+      <c r="I470" t="n">
+        <v>0.3973245346548462</v>
+      </c>
+      <c r="J470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -12694,6 +15518,12 @@
       <c r="H471" t="n">
         <v>0</v>
       </c>
+      <c r="I471" t="n">
+        <v>0.3977169116510863</v>
+      </c>
+      <c r="J471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -12720,6 +15550,12 @@
       <c r="H472" t="n">
         <v>8.12953161987843</v>
       </c>
+      <c r="I472" t="n">
+        <v>0.5830449209081163</v>
+      </c>
+      <c r="J472" t="n">
+        <v>8.37518554481991</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -12746,6 +15582,12 @@
       <c r="H473" t="n">
         <v>9.234831318107078</v>
       </c>
+      <c r="I473" t="n">
+        <v>0.5176768142947386</v>
+      </c>
+      <c r="J473" t="n">
+        <v>9.62164623821848</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -12772,6 +15614,12 @@
       <c r="H474" t="n">
         <v>11.01176517850235</v>
       </c>
+      <c r="I474" t="n">
+        <v>0.6265215651315716</v>
+      </c>
+      <c r="J474" t="n">
+        <v>10.69524235962334</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -12798,6 +15646,12 @@
       <c r="H475" t="n">
         <v>0</v>
       </c>
+      <c r="I475" t="n">
+        <v>0.2953206886908443</v>
+      </c>
+      <c r="J475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -12824,6 +15678,12 @@
       <c r="H476" t="n">
         <v>0</v>
       </c>
+      <c r="I476" t="n">
+        <v>0.315000048143747</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -12850,6 +15710,12 @@
       <c r="H477" t="n">
         <v>0</v>
       </c>
+      <c r="I477" t="n">
+        <v>0.4326805829247704</v>
+      </c>
+      <c r="J477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -12876,6 +15742,12 @@
       <c r="H478" t="n">
         <v>0</v>
       </c>
+      <c r="I478" t="n">
+        <v>0.3408977199727146</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -12902,6 +15774,12 @@
       <c r="H479" t="n">
         <v>0</v>
       </c>
+      <c r="I479" t="n">
+        <v>0.4383320143646606</v>
+      </c>
+      <c r="J479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -12928,6 +15806,12 @@
       <c r="H480" t="n">
         <v>0</v>
       </c>
+      <c r="I480" t="n">
+        <v>0.2835928216700341</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -12954,6 +15838,12 @@
       <c r="H481" t="n">
         <v>0</v>
       </c>
+      <c r="I481" t="n">
+        <v>0.4830192470182861</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -12980,6 +15870,12 @@
       <c r="H482" t="n">
         <v>0</v>
       </c>
+      <c r="I482" t="n">
+        <v>0.3861996109596111</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -13006,6 +15902,12 @@
       <c r="H483" t="n">
         <v>7.888416053170976</v>
       </c>
+      <c r="I483" t="n">
+        <v>0.6088857544226072</v>
+      </c>
+      <c r="J483" t="n">
+        <v>8.621111355073499</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -13032,6 +15934,12 @@
       <c r="H484" t="n">
         <v>0</v>
       </c>
+      <c r="I484" t="n">
+        <v>0.368333903728455</v>
+      </c>
+      <c r="J484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -13058,6 +15966,12 @@
       <c r="H485" t="n">
         <v>0</v>
       </c>
+      <c r="I485" t="n">
+        <v>0.4801082427137484</v>
+      </c>
+      <c r="J485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -13084,6 +15998,12 @@
       <c r="H486" t="n">
         <v>0</v>
       </c>
+      <c r="I486" t="n">
+        <v>0.2537750076838027</v>
+      </c>
+      <c r="J486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -13110,6 +16030,12 @@
       <c r="H487" t="n">
         <v>0</v>
       </c>
+      <c r="I487" t="n">
+        <v>0.3897195172044251</v>
+      </c>
+      <c r="J487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -13136,6 +16062,12 @@
       <c r="H488" t="n">
         <v>0</v>
       </c>
+      <c r="I488" t="n">
+        <v>0.3896043939499834</v>
+      </c>
+      <c r="J488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -13162,6 +16094,12 @@
       <c r="H489" t="n">
         <v>0</v>
       </c>
+      <c r="I489" t="n">
+        <v>0.4509314475183566</v>
+      </c>
+      <c r="J489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -13188,6 +16126,12 @@
       <c r="H490" t="n">
         <v>0</v>
       </c>
+      <c r="I490" t="n">
+        <v>0.4584202053613003</v>
+      </c>
+      <c r="J490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -13214,6 +16158,12 @@
       <c r="H491" t="n">
         <v>0</v>
       </c>
+      <c r="I491" t="n">
+        <v>0.4967980692567195</v>
+      </c>
+      <c r="J491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -13240,6 +16190,12 @@
       <c r="H492" t="n">
         <v>0</v>
       </c>
+      <c r="I492" t="n">
+        <v>0.3051303188235617</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -13266,6 +16222,12 @@
       <c r="H493" t="n">
         <v>0</v>
       </c>
+      <c r="I493" t="n">
+        <v>0.2978196188118855</v>
+      </c>
+      <c r="J493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -13292,6 +16254,12 @@
       <c r="H494" t="n">
         <v>0</v>
       </c>
+      <c r="I494" t="n">
+        <v>0.3248567051230668</v>
+      </c>
+      <c r="J494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -13318,6 +16286,12 @@
       <c r="H495" t="n">
         <v>0</v>
       </c>
+      <c r="I495" t="n">
+        <v>0.363070207039816</v>
+      </c>
+      <c r="J495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -13344,6 +16318,12 @@
       <c r="H496" t="n">
         <v>0</v>
       </c>
+      <c r="I496" t="n">
+        <v>0.356975328128027</v>
+      </c>
+      <c r="J496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -13370,6 +16350,12 @@
       <c r="H497" t="n">
         <v>0</v>
       </c>
+      <c r="I497" t="n">
+        <v>0.3141206565685761</v>
+      </c>
+      <c r="J497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -13396,6 +16382,12 @@
       <c r="H498" t="n">
         <v>14.64841560941207</v>
       </c>
+      <c r="I498" t="n">
+        <v>0.6670542554271773</v>
+      </c>
+      <c r="J498" t="n">
+        <v>15.56322692951773</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -13422,6 +16414,12 @@
       <c r="H499" t="n">
         <v>0</v>
       </c>
+      <c r="I499" t="n">
+        <v>0.463992914346775</v>
+      </c>
+      <c r="J499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -13448,6 +16446,12 @@
       <c r="H500" t="n">
         <v>0</v>
       </c>
+      <c r="I500" t="n">
+        <v>0.4540930570644692</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -13474,6 +16478,12 @@
       <c r="H501" t="n">
         <v>0</v>
       </c>
+      <c r="I501" t="n">
+        <v>0.4216256435734929</v>
+      </c>
+      <c r="J501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -13500,6 +16510,12 @@
       <c r="H502" t="n">
         <v>11.4765384324158</v>
       </c>
+      <c r="I502" t="n">
+        <v>0.5284545569937494</v>
+      </c>
+      <c r="J502" t="n">
+        <v>11.78946320165829</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -13526,6 +16542,12 @@
       <c r="H503" t="n">
         <v>0</v>
       </c>
+      <c r="I503" t="n">
+        <v>0.367689421205814</v>
+      </c>
+      <c r="J503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -13552,6 +16574,12 @@
       <c r="H504" t="n">
         <v>0</v>
       </c>
+      <c r="I504" t="n">
+        <v>0.3023988614480009</v>
+      </c>
+      <c r="J504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -13578,6 +16606,12 @@
       <c r="H505" t="n">
         <v>10.96010057394665</v>
       </c>
+      <c r="I505" t="n">
+        <v>0.5368657812918897</v>
+      </c>
+      <c r="J505" t="n">
+        <v>10.86025658380602</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -13604,6 +16638,12 @@
       <c r="H506" t="n">
         <v>0</v>
       </c>
+      <c r="I506" t="n">
+        <v>0.4317918356446594</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -13630,6 +16670,12 @@
       <c r="H507" t="n">
         <v>0</v>
       </c>
+      <c r="I507" t="n">
+        <v>0.4576913815256693</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -13656,6 +16702,12 @@
       <c r="H508" t="n">
         <v>0</v>
       </c>
+      <c r="I508" t="n">
+        <v>0.4171213279135922</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -13682,6 +16734,12 @@
       <c r="H509" t="n">
         <v>12.21658177638372</v>
       </c>
+      <c r="I509" t="n">
+        <v>0.5065989632639146</v>
+      </c>
+      <c r="J509" t="n">
+        <v>10.46082932648701</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -13708,6 +16766,12 @@
       <c r="H510" t="n">
         <v>8.996676701697579</v>
       </c>
+      <c r="I510" t="n">
+        <v>0.7196690709452304</v>
+      </c>
+      <c r="J510" t="n">
+        <v>9.121347782693498</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -13734,6 +16798,12 @@
       <c r="H511" t="n">
         <v>0</v>
       </c>
+      <c r="I511" t="n">
+        <v>0.3307728614906858</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -13760,6 +16830,12 @@
       <c r="H512" t="n">
         <v>14.73848122783526</v>
       </c>
+      <c r="I512" t="n">
+        <v>0.552811014794128</v>
+      </c>
+      <c r="J512" t="n">
+        <v>15.89183390662909</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -13786,6 +16862,12 @@
       <c r="H513" t="n">
         <v>13.95561452438609</v>
       </c>
+      <c r="I513" t="n">
+        <v>0.5015651813980417</v>
+      </c>
+      <c r="J513" t="n">
+        <v>13.87338205150009</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -13812,6 +16894,12 @@
       <c r="H514" t="n">
         <v>0</v>
       </c>
+      <c r="I514" t="n">
+        <v>0.2618308510129123</v>
+      </c>
+      <c r="J514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -13838,6 +16926,12 @@
       <c r="H515" t="n">
         <v>13.00975224465183</v>
       </c>
+      <c r="I515" t="n">
+        <v>0.6437241994959507</v>
+      </c>
+      <c r="J515" t="n">
+        <v>11.88578088293359</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -13864,6 +16958,12 @@
       <c r="H516" t="n">
         <v>10.57609881199595</v>
       </c>
+      <c r="I516" t="n">
+        <v>0.5687135427484989</v>
+      </c>
+      <c r="J516" t="n">
+        <v>10.76212501100032</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -13890,6 +16990,12 @@
       <c r="H517" t="n">
         <v>16.2859298226262</v>
       </c>
+      <c r="I517" t="n">
+        <v>0.5096223902454217</v>
+      </c>
+      <c r="J517" t="n">
+        <v>16.72242869587637</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -13916,6 +17022,12 @@
       <c r="H518" t="n">
         <v>0</v>
       </c>
+      <c r="I518" t="n">
+        <v>0.3620663055011066</v>
+      </c>
+      <c r="J518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -13942,6 +17054,12 @@
       <c r="H519" t="n">
         <v>0</v>
       </c>
+      <c r="I519" t="n">
+        <v>0.3766367008241255</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -13968,6 +17086,12 @@
       <c r="H520" t="n">
         <v>0</v>
       </c>
+      <c r="I520" t="n">
+        <v>0.4910323612782346</v>
+      </c>
+      <c r="J520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -13994,6 +17118,12 @@
       <c r="H521" t="n">
         <v>0</v>
       </c>
+      <c r="I521" t="n">
+        <v>0.4983458421187144</v>
+      </c>
+      <c r="J521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -14020,6 +17150,12 @@
       <c r="H522" t="n">
         <v>0</v>
       </c>
+      <c r="I522" t="n">
+        <v>0.4583095910012059</v>
+      </c>
+      <c r="J522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -14046,6 +17182,12 @@
       <c r="H523" t="n">
         <v>9.927748418182835</v>
       </c>
+      <c r="I523" t="n">
+        <v>0.5953807856553415</v>
+      </c>
+      <c r="J523" t="n">
+        <v>9.207021547687258</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -14072,6 +17214,12 @@
       <c r="H524" t="n">
         <v>0</v>
       </c>
+      <c r="I524" t="n">
+        <v>0.4155560555820038</v>
+      </c>
+      <c r="J524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -14098,6 +17246,12 @@
       <c r="H525" t="n">
         <v>12.44348981709029</v>
       </c>
+      <c r="I525" t="n">
+        <v>0.6689322328425452</v>
+      </c>
+      <c r="J525" t="n">
+        <v>13.09995342174166</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -14124,6 +17278,12 @@
       <c r="H526" t="n">
         <v>0</v>
       </c>
+      <c r="I526" t="n">
+        <v>0.3775296754964685</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -14150,6 +17310,12 @@
       <c r="H527" t="n">
         <v>0</v>
       </c>
+      <c r="I527" t="n">
+        <v>0.4679401107609846</v>
+      </c>
+      <c r="J527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -14176,6 +17342,12 @@
       <c r="H528" t="n">
         <v>13.451886501554</v>
       </c>
+      <c r="I528" t="n">
+        <v>0.5183752453825945</v>
+      </c>
+      <c r="J528" t="n">
+        <v>13.13818094931854</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -14202,6 +17374,12 @@
       <c r="H529" t="n">
         <v>15.19756084678626</v>
       </c>
+      <c r="I529" t="n">
+        <v>0.5543460147650834</v>
+      </c>
+      <c r="J529" t="n">
+        <v>13.92572509321911</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -14228,6 +17406,12 @@
       <c r="H530" t="n">
         <v>0</v>
       </c>
+      <c r="I530" t="n">
+        <v>0.2994614975816158</v>
+      </c>
+      <c r="J530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -14254,6 +17438,12 @@
       <c r="H531" t="n">
         <v>0</v>
       </c>
+      <c r="I531" t="n">
+        <v>0.437800094834122</v>
+      </c>
+      <c r="J531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -14280,6 +17470,12 @@
       <c r="H532" t="n">
         <v>0</v>
       </c>
+      <c r="I532" t="n">
+        <v>0.4880833992969553</v>
+      </c>
+      <c r="J532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -14306,6 +17502,12 @@
       <c r="H533" t="n">
         <v>0</v>
       </c>
+      <c r="I533" t="n">
+        <v>0.3998915343738703</v>
+      </c>
+      <c r="J533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -14332,6 +17534,12 @@
       <c r="H534" t="n">
         <v>0</v>
       </c>
+      <c r="I534" t="n">
+        <v>0.4139510121834921</v>
+      </c>
+      <c r="J534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -14358,6 +17566,12 @@
       <c r="H535" t="n">
         <v>17.04548115418971</v>
       </c>
+      <c r="I535" t="n">
+        <v>0.5884202455573939</v>
+      </c>
+      <c r="J535" t="n">
+        <v>18.22671080635634</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -14384,6 +17598,12 @@
       <c r="H536" t="n">
         <v>17.61772778332691</v>
       </c>
+      <c r="I536" t="n">
+        <v>0.6002893148156723</v>
+      </c>
+      <c r="J536" t="n">
+        <v>16.90167711974533</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -14410,6 +17630,12 @@
       <c r="H537" t="n">
         <v>0</v>
       </c>
+      <c r="I537" t="n">
+        <v>0.3739682825992897</v>
+      </c>
+      <c r="J537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -14436,6 +17662,12 @@
       <c r="H538" t="n">
         <v>0</v>
       </c>
+      <c r="I538" t="n">
+        <v>0.4694142531352252</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -14462,6 +17694,12 @@
       <c r="H539" t="n">
         <v>10.88256828434054</v>
       </c>
+      <c r="I539" t="n">
+        <v>0.5236852170042559</v>
+      </c>
+      <c r="J539" t="n">
+        <v>11.19418118520252</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -14488,6 +17726,12 @@
       <c r="H540" t="n">
         <v>0</v>
       </c>
+      <c r="I540" t="n">
+        <v>0.4937660263165417</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -14514,6 +17758,12 @@
       <c r="H541" t="n">
         <v>0</v>
       </c>
+      <c r="I541" t="n">
+        <v>0.4225423280513491</v>
+      </c>
+      <c r="J541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -14540,6 +17790,12 @@
       <c r="H542" t="n">
         <v>0</v>
       </c>
+      <c r="I542" t="n">
+        <v>0.2510343555634192</v>
+      </c>
+      <c r="J542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -14566,6 +17822,12 @@
       <c r="H543" t="n">
         <v>0</v>
       </c>
+      <c r="I543" t="n">
+        <v>0.3967664906524681</v>
+      </c>
+      <c r="J543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -14592,6 +17854,12 @@
       <c r="H544" t="n">
         <v>0</v>
       </c>
+      <c r="I544" t="n">
+        <v>0.352043797173102</v>
+      </c>
+      <c r="J544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -14618,6 +17886,12 @@
       <c r="H545" t="n">
         <v>0</v>
       </c>
+      <c r="I545" t="n">
+        <v>0.2462652523435605</v>
+      </c>
+      <c r="J545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -14644,6 +17918,12 @@
       <c r="H546" t="n">
         <v>10.71647323194167</v>
       </c>
+      <c r="I546" t="n">
+        <v>0.6084019419126059</v>
+      </c>
+      <c r="J546" t="n">
+        <v>12.17402514355975</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -14670,6 +17950,12 @@
       <c r="H547" t="n">
         <v>0</v>
       </c>
+      <c r="I547" t="n">
+        <v>0.3730038506466006</v>
+      </c>
+      <c r="J547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -14696,6 +17982,12 @@
       <c r="H548" t="n">
         <v>0</v>
       </c>
+      <c r="I548" t="n">
+        <v>0.414755676188392</v>
+      </c>
+      <c r="J548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -14722,6 +18014,12 @@
       <c r="H549" t="n">
         <v>0</v>
       </c>
+      <c r="I549" t="n">
+        <v>0.4491578131659502</v>
+      </c>
+      <c r="J549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -14748,6 +18046,12 @@
       <c r="H550" t="n">
         <v>0</v>
       </c>
+      <c r="I550" t="n">
+        <v>0.4388620922291767</v>
+      </c>
+      <c r="J550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -14774,6 +18078,12 @@
       <c r="H551" t="n">
         <v>0</v>
       </c>
+      <c r="I551" t="n">
+        <v>0.4820139582771331</v>
+      </c>
+      <c r="J551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -14800,6 +18110,12 @@
       <c r="H552" t="n">
         <v>0</v>
       </c>
+      <c r="I552" t="n">
+        <v>0.4715542916689745</v>
+      </c>
+      <c r="J552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -14826,6 +18142,12 @@
       <c r="H553" t="n">
         <v>9.800030784032437</v>
       </c>
+      <c r="I553" t="n">
+        <v>0.507994387419627</v>
+      </c>
+      <c r="J553" t="n">
+        <v>9.367278564419943</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -14852,6 +18174,12 @@
       <c r="H554" t="n">
         <v>16.58028035335842</v>
       </c>
+      <c r="I554" t="n">
+        <v>0.5178766021305942</v>
+      </c>
+      <c r="J554" t="n">
+        <v>16.31743236666112</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -14878,6 +18206,12 @@
       <c r="H555" t="n">
         <v>12.36254566573803</v>
       </c>
+      <c r="I555" t="n">
+        <v>0.5701685754690914</v>
+      </c>
+      <c r="J555" t="n">
+        <v>12.34043466038922</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -14904,6 +18238,12 @@
       <c r="H556" t="n">
         <v>14.3560092865465</v>
       </c>
+      <c r="I556" t="n">
+        <v>0.524370631829074</v>
+      </c>
+      <c r="J556" t="n">
+        <v>12.55335576873523</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -14930,6 +18270,12 @@
       <c r="H557" t="n">
         <v>0</v>
       </c>
+      <c r="I557" t="n">
+        <v>0.3231160036425914</v>
+      </c>
+      <c r="J557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -14956,6 +18302,12 @@
       <c r="H558" t="n">
         <v>0</v>
       </c>
+      <c r="I558" t="n">
+        <v>0.3942545415587141</v>
+      </c>
+      <c r="J558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -14982,6 +18334,12 @@
       <c r="H559" t="n">
         <v>0</v>
       </c>
+      <c r="I559" t="n">
+        <v>0.3630707896918442</v>
+      </c>
+      <c r="J559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -15008,6 +18366,12 @@
       <c r="H560" t="n">
         <v>0</v>
       </c>
+      <c r="I560" t="n">
+        <v>0.455066793245322</v>
+      </c>
+      <c r="J560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -15034,6 +18398,12 @@
       <c r="H561" t="n">
         <v>0</v>
       </c>
+      <c r="I561" t="n">
+        <v>0.467360472752425</v>
+      </c>
+      <c r="J561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -15060,6 +18430,12 @@
       <c r="H562" t="n">
         <v>0</v>
       </c>
+      <c r="I562" t="n">
+        <v>0.3150904653269508</v>
+      </c>
+      <c r="J562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -15086,6 +18462,12 @@
       <c r="H563" t="n">
         <v>0</v>
       </c>
+      <c r="I563" t="n">
+        <v>0.485911885689204</v>
+      </c>
+      <c r="J563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -15112,6 +18494,12 @@
       <c r="H564" t="n">
         <v>0</v>
       </c>
+      <c r="I564" t="n">
+        <v>0.4249577149420443</v>
+      </c>
+      <c r="J564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -15138,6 +18526,12 @@
       <c r="H565" t="n">
         <v>0</v>
       </c>
+      <c r="I565" t="n">
+        <v>0.3388079229549846</v>
+      </c>
+      <c r="J565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -15164,6 +18558,12 @@
       <c r="H566" t="n">
         <v>0</v>
       </c>
+      <c r="I566" t="n">
+        <v>0.401501267963882</v>
+      </c>
+      <c r="J566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -15190,6 +18590,12 @@
       <c r="H567" t="n">
         <v>0</v>
       </c>
+      <c r="I567" t="n">
+        <v>0.3534517751229269</v>
+      </c>
+      <c r="J567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -15216,6 +18622,12 @@
       <c r="H568" t="n">
         <v>0</v>
       </c>
+      <c r="I568" t="n">
+        <v>0.3520240065422132</v>
+      </c>
+      <c r="J568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -15242,6 +18654,12 @@
       <c r="H569" t="n">
         <v>0</v>
       </c>
+      <c r="I569" t="n">
+        <v>0.4396149471793585</v>
+      </c>
+      <c r="J569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -15268,6 +18686,12 @@
       <c r="H570" t="n">
         <v>12.59383817656724</v>
       </c>
+      <c r="I570" t="n">
+        <v>0.5939318394387156</v>
+      </c>
+      <c r="J570" t="n">
+        <v>13.46865850443247</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -15294,6 +18718,12 @@
       <c r="H571" t="n">
         <v>0</v>
       </c>
+      <c r="I571" t="n">
+        <v>0.4227045045033115</v>
+      </c>
+      <c r="J571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -15320,6 +18750,12 @@
       <c r="H572" t="n">
         <v>11.99431681423152</v>
       </c>
+      <c r="I572" t="n">
+        <v>0.5849609749229813</v>
+      </c>
+      <c r="J572" t="n">
+        <v>11.87741372366196</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -15346,6 +18782,12 @@
       <c r="H573" t="n">
         <v>0</v>
       </c>
+      <c r="I573" t="n">
+        <v>0.4836405076329171</v>
+      </c>
+      <c r="J573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -15372,6 +18814,12 @@
       <c r="H574" t="n">
         <v>0</v>
       </c>
+      <c r="I574" t="n">
+        <v>0.4998049451753879</v>
+      </c>
+      <c r="J574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -15398,6 +18846,12 @@
       <c r="H575" t="n">
         <v>16.25352539025954</v>
       </c>
+      <c r="I575" t="n">
+        <v>0.6038508477894432</v>
+      </c>
+      <c r="J575" t="n">
+        <v>17.27121328416274</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -15424,6 +18878,12 @@
       <c r="H576" t="n">
         <v>0</v>
       </c>
+      <c r="I576" t="n">
+        <v>0.371531823266628</v>
+      </c>
+      <c r="J576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -15450,6 +18910,12 @@
       <c r="H577" t="n">
         <v>0</v>
       </c>
+      <c r="I577" t="n">
+        <v>0.3948120691467477</v>
+      </c>
+      <c r="J577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -15476,6 +18942,12 @@
       <c r="H578" t="n">
         <v>0</v>
       </c>
+      <c r="I578" t="n">
+        <v>0.4717731144793695</v>
+      </c>
+      <c r="J578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -15502,6 +18974,12 @@
       <c r="H579" t="n">
         <v>0</v>
       </c>
+      <c r="I579" t="n">
+        <v>0.3825226094067</v>
+      </c>
+      <c r="J579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -15528,6 +19006,12 @@
       <c r="H580" t="n">
         <v>0</v>
       </c>
+      <c r="I580" t="n">
+        <v>0.2629855048273912</v>
+      </c>
+      <c r="J580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -15554,6 +19038,12 @@
       <c r="H581" t="n">
         <v>0</v>
       </c>
+      <c r="I581" t="n">
+        <v>0.4889983571601998</v>
+      </c>
+      <c r="J581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -15580,6 +19070,12 @@
       <c r="H582" t="n">
         <v>0</v>
       </c>
+      <c r="I582" t="n">
+        <v>0.2545637262417672</v>
+      </c>
+      <c r="J582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -15606,6 +19102,12 @@
       <c r="H583" t="n">
         <v>11.51685420890326</v>
       </c>
+      <c r="I583" t="n">
+        <v>0.5477612079843376</v>
+      </c>
+      <c r="J583" t="n">
+        <v>10.84883810544614</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -15632,6 +19134,12 @@
       <c r="H584" t="n">
         <v>17.64189360238869</v>
       </c>
+      <c r="I584" t="n">
+        <v>0.6196306506563183</v>
+      </c>
+      <c r="J584" t="n">
+        <v>16.67906710631513</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -15658,6 +19166,12 @@
       <c r="H585" t="n">
         <v>0</v>
       </c>
+      <c r="I585" t="n">
+        <v>0.3836827610422247</v>
+      </c>
+      <c r="J585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -15684,6 +19198,12 @@
       <c r="H586" t="n">
         <v>0</v>
       </c>
+      <c r="I586" t="n">
+        <v>0.4059871653558498</v>
+      </c>
+      <c r="J586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -15710,6 +19230,12 @@
       <c r="H587" t="n">
         <v>13.11373572599493</v>
       </c>
+      <c r="I587" t="n">
+        <v>0.610347995831953</v>
+      </c>
+      <c r="J587" t="n">
+        <v>13.72726040094866</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -15736,6 +19262,12 @@
       <c r="H588" t="n">
         <v>0</v>
       </c>
+      <c r="I588" t="n">
+        <v>0.4709457442094424</v>
+      </c>
+      <c r="J588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -15762,6 +19294,12 @@
       <c r="H589" t="n">
         <v>0</v>
       </c>
+      <c r="I589" t="n">
+        <v>0.441061633767566</v>
+      </c>
+      <c r="J589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -15788,6 +19326,12 @@
       <c r="H590" t="n">
         <v>0</v>
       </c>
+      <c r="I590" t="n">
+        <v>0.2690045020911711</v>
+      </c>
+      <c r="J590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -15814,6 +19358,12 @@
       <c r="H591" t="n">
         <v>12.10241787650379</v>
       </c>
+      <c r="I591" t="n">
+        <v>0.5147161489453388</v>
+      </c>
+      <c r="J591" t="n">
+        <v>11.92630615086303</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -15840,6 +19390,12 @@
       <c r="H592" t="n">
         <v>0</v>
       </c>
+      <c r="I592" t="n">
+        <v>0.321371533242128</v>
+      </c>
+      <c r="J592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -15866,6 +19422,12 @@
       <c r="H593" t="n">
         <v>11.97263321445827</v>
       </c>
+      <c r="I593" t="n">
+        <v>0.6858810589941101</v>
+      </c>
+      <c r="J593" t="n">
+        <v>11.58203561361258</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -15892,6 +19454,12 @@
       <c r="H594" t="n">
         <v>0</v>
       </c>
+      <c r="I594" t="n">
+        <v>0.4370655755314506</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -15918,6 +19486,12 @@
       <c r="H595" t="n">
         <v>9.932374084889783</v>
       </c>
+      <c r="I595" t="n">
+        <v>0.5057260445265243</v>
+      </c>
+      <c r="J595" t="n">
+        <v>9.181951764759521</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -15944,6 +19518,12 @@
       <c r="H596" t="n">
         <v>0</v>
       </c>
+      <c r="I596" t="n">
+        <v>0.446180375164472</v>
+      </c>
+      <c r="J596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -15970,6 +19550,12 @@
       <c r="H597" t="n">
         <v>0</v>
       </c>
+      <c r="I597" t="n">
+        <v>0.2807173118721668</v>
+      </c>
+      <c r="J597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -15996,6 +19582,12 @@
       <c r="H598" t="n">
         <v>0</v>
       </c>
+      <c r="I598" t="n">
+        <v>0.4298507063713876</v>
+      </c>
+      <c r="J598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -16022,6 +19614,12 @@
       <c r="H599" t="n">
         <v>0</v>
       </c>
+      <c r="I599" t="n">
+        <v>0.4711907856899755</v>
+      </c>
+      <c r="J599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -16048,6 +19646,12 @@
       <c r="H600" t="n">
         <v>0</v>
       </c>
+      <c r="I600" t="n">
+        <v>0.4759208513045243</v>
+      </c>
+      <c r="J600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -16074,6 +19678,12 @@
       <c r="H601" t="n">
         <v>0</v>
       </c>
+      <c r="I601" t="n">
+        <v>0.4877568676024387</v>
+      </c>
+      <c r="J601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -16100,6 +19710,12 @@
       <c r="H602" t="n">
         <v>0</v>
       </c>
+      <c r="I602" t="n">
+        <v>0.3526122573020788</v>
+      </c>
+      <c r="J602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -16126,6 +19742,12 @@
       <c r="H603" t="n">
         <v>0</v>
       </c>
+      <c r="I603" t="n">
+        <v>0.2098669945044509</v>
+      </c>
+      <c r="J603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -16152,6 +19774,12 @@
       <c r="H604" t="n">
         <v>0</v>
       </c>
+      <c r="I604" t="n">
+        <v>0.3891300596934757</v>
+      </c>
+      <c r="J604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -16178,6 +19806,12 @@
       <c r="H605" t="n">
         <v>0</v>
       </c>
+      <c r="I605" t="n">
+        <v>0.443330646606175</v>
+      </c>
+      <c r="J605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -16204,6 +19838,12 @@
       <c r="H606" t="n">
         <v>0</v>
       </c>
+      <c r="I606" t="n">
+        <v>0.4210690782574971</v>
+      </c>
+      <c r="J606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -16230,6 +19870,12 @@
       <c r="H607" t="n">
         <v>0</v>
       </c>
+      <c r="I607" t="n">
+        <v>0.3651178853226053</v>
+      </c>
+      <c r="J607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -16256,6 +19902,12 @@
       <c r="H608" t="n">
         <v>0</v>
       </c>
+      <c r="I608" t="n">
+        <v>0.3419842603132767</v>
+      </c>
+      <c r="J608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -16282,6 +19934,12 @@
       <c r="H609" t="n">
         <v>14.47241287717506</v>
       </c>
+      <c r="I609" t="n">
+        <v>0.5699465024442563</v>
+      </c>
+      <c r="J609" t="n">
+        <v>16.8982895312657</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -16308,6 +19966,12 @@
       <c r="H610" t="n">
         <v>0</v>
       </c>
+      <c r="I610" t="n">
+        <v>0.2929070361531628</v>
+      </c>
+      <c r="J610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -16334,6 +19998,12 @@
       <c r="H611" t="n">
         <v>0</v>
       </c>
+      <c r="I611" t="n">
+        <v>0.4352427618129749</v>
+      </c>
+      <c r="J611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -16360,6 +20030,12 @@
       <c r="H612" t="n">
         <v>0</v>
       </c>
+      <c r="I612" t="n">
+        <v>0.3304071135130257</v>
+      </c>
+      <c r="J612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -16386,6 +20062,12 @@
       <c r="H613" t="n">
         <v>9.303642787846197</v>
       </c>
+      <c r="I613" t="n">
+        <v>0.5736653466731734</v>
+      </c>
+      <c r="J613" t="n">
+        <v>9.726630863340093</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -16412,6 +20094,12 @@
       <c r="H614" t="n">
         <v>0</v>
       </c>
+      <c r="I614" t="n">
+        <v>0.4778976607631875</v>
+      </c>
+      <c r="J614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -16438,6 +20126,12 @@
       <c r="H615" t="n">
         <v>0</v>
       </c>
+      <c r="I615" t="n">
+        <v>0.4551021202808648</v>
+      </c>
+      <c r="J615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -16464,6 +20158,12 @@
       <c r="H616" t="n">
         <v>11.89613555653934</v>
       </c>
+      <c r="I616" t="n">
+        <v>0.555363702961041</v>
+      </c>
+      <c r="J616" t="n">
+        <v>11.63760738791845</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -16490,6 +20190,12 @@
       <c r="H617" t="n">
         <v>0</v>
       </c>
+      <c r="I617" t="n">
+        <v>0.4213260928995834</v>
+      </c>
+      <c r="J617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -16516,6 +20222,12 @@
       <c r="H618" t="n">
         <v>12.41041095221586</v>
       </c>
+      <c r="I618" t="n">
+        <v>0.5204951137170425</v>
+      </c>
+      <c r="J618" t="n">
+        <v>11.85943146274244</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -16542,6 +20254,12 @@
       <c r="H619" t="n">
         <v>0</v>
       </c>
+      <c r="I619" t="n">
+        <v>0.4499171207058054</v>
+      </c>
+      <c r="J619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -16568,6 +20286,12 @@
       <c r="H620" t="n">
         <v>9.951479155941698</v>
       </c>
+      <c r="I620" t="n">
+        <v>0.5755806401651659</v>
+      </c>
+      <c r="J620" t="n">
+        <v>10.18915163748833</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -16594,6 +20318,12 @@
       <c r="H621" t="n">
         <v>0</v>
       </c>
+      <c r="I621" t="n">
+        <v>0.3208201291012428</v>
+      </c>
+      <c r="J621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -16620,6 +20350,12 @@
       <c r="H622" t="n">
         <v>14.16927767235799</v>
       </c>
+      <c r="I622" t="n">
+        <v>0.5732254420942535</v>
+      </c>
+      <c r="J622" t="n">
+        <v>13.3846158144503</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -16646,6 +20382,12 @@
       <c r="H623" t="n">
         <v>0</v>
       </c>
+      <c r="I623" t="n">
+        <v>0.4048881896754825</v>
+      </c>
+      <c r="J623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -16672,6 +20414,12 @@
       <c r="H624" t="n">
         <v>0</v>
       </c>
+      <c r="I624" t="n">
+        <v>0.2468785818656795</v>
+      </c>
+      <c r="J624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -16698,6 +20446,12 @@
       <c r="H625" t="n">
         <v>0</v>
       </c>
+      <c r="I625" t="n">
+        <v>0.3912817810664412</v>
+      </c>
+      <c r="J625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -16724,6 +20478,12 @@
       <c r="H626" t="n">
         <v>13.96382049609617</v>
       </c>
+      <c r="I626" t="n">
+        <v>0.7021343980078527</v>
+      </c>
+      <c r="J626" t="n">
+        <v>14.77243781188058</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -16750,6 +20510,12 @@
       <c r="H627" t="n">
         <v>0</v>
       </c>
+      <c r="I627" t="n">
+        <v>0.4596140759839959</v>
+      </c>
+      <c r="J627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -16776,6 +20542,12 @@
       <c r="H628" t="n">
         <v>11.75817662700706</v>
       </c>
+      <c r="I628" t="n">
+        <v>0.5678112092652349</v>
+      </c>
+      <c r="J628" t="n">
+        <v>10.64039604851497</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -16802,6 +20574,12 @@
       <c r="H629" t="n">
         <v>0</v>
       </c>
+      <c r="I629" t="n">
+        <v>0.4375713301452138</v>
+      </c>
+      <c r="J629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -16828,6 +20606,12 @@
       <c r="H630" t="n">
         <v>0</v>
       </c>
+      <c r="I630" t="n">
+        <v>0.3106185222553204</v>
+      </c>
+      <c r="J630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -16854,6 +20638,12 @@
       <c r="H631" t="n">
         <v>0</v>
       </c>
+      <c r="I631" t="n">
+        <v>0.458909316452374</v>
+      </c>
+      <c r="J631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -16880,6 +20670,12 @@
       <c r="H632" t="n">
         <v>0</v>
       </c>
+      <c r="I632" t="n">
+        <v>0.3139740921317914</v>
+      </c>
+      <c r="J632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -16906,6 +20702,12 @@
       <c r="H633" t="n">
         <v>0</v>
       </c>
+      <c r="I633" t="n">
+        <v>0.4354643984917144</v>
+      </c>
+      <c r="J633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -16932,6 +20734,12 @@
       <c r="H634" t="n">
         <v>0</v>
       </c>
+      <c r="I634" t="n">
+        <v>0.4218670199333759</v>
+      </c>
+      <c r="J634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -16958,6 +20766,12 @@
       <c r="H635" t="n">
         <v>0</v>
       </c>
+      <c r="I635" t="n">
+        <v>0.3632108837873508</v>
+      </c>
+      <c r="J635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -16984,6 +20798,12 @@
       <c r="H636" t="n">
         <v>0</v>
       </c>
+      <c r="I636" t="n">
+        <v>0.3773133927468855</v>
+      </c>
+      <c r="J636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -17010,6 +20830,12 @@
       <c r="H637" t="n">
         <v>10.47643335444318</v>
       </c>
+      <c r="I637" t="n">
+        <v>0.5577984674181973</v>
+      </c>
+      <c r="J637" t="n">
+        <v>10.14120265196113</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -17036,6 +20862,12 @@
       <c r="H638" t="n">
         <v>0</v>
       </c>
+      <c r="I638" t="n">
+        <v>0.3961922818437826</v>
+      </c>
+      <c r="J638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -17062,6 +20894,12 @@
       <c r="H639" t="n">
         <v>0</v>
       </c>
+      <c r="I639" t="n">
+        <v>0.4409950131367579</v>
+      </c>
+      <c r="J639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -17088,6 +20926,12 @@
       <c r="H640" t="n">
         <v>0</v>
       </c>
+      <c r="I640" t="n">
+        <v>0.2961788660717208</v>
+      </c>
+      <c r="J640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -17114,6 +20958,12 @@
       <c r="H641" t="n">
         <v>0</v>
       </c>
+      <c r="I641" t="n">
+        <v>0.2745638734591513</v>
+      </c>
+      <c r="J641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -17140,6 +20990,12 @@
       <c r="H642" t="n">
         <v>0</v>
       </c>
+      <c r="I642" t="n">
+        <v>0.2417283846376838</v>
+      </c>
+      <c r="J642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -17166,6 +21022,12 @@
       <c r="H643" t="n">
         <v>0</v>
       </c>
+      <c r="I643" t="n">
+        <v>0.4951198276289564</v>
+      </c>
+      <c r="J643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -17192,6 +21054,12 @@
       <c r="H644" t="n">
         <v>0</v>
       </c>
+      <c r="I644" t="n">
+        <v>0.2297080346005877</v>
+      </c>
+      <c r="J644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -17218,6 +21086,12 @@
       <c r="H645" t="n">
         <v>0</v>
       </c>
+      <c r="I645" t="n">
+        <v>0.4696987728725515</v>
+      </c>
+      <c r="J645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -17244,6 +21118,12 @@
       <c r="H646" t="n">
         <v>0</v>
       </c>
+      <c r="I646" t="n">
+        <v>0.4740525320996753</v>
+      </c>
+      <c r="J646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -17268,6 +21148,12 @@
         <v>0.3560694160716806</v>
       </c>
       <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="n">
+        <v>0.3560694160716806</v>
+      </c>
+      <c r="J647" t="n">
         <v>0</v>
       </c>
     </row>
